--- a/чек-лист.xlsx
+++ b/чек-лист.xlsx
@@ -1153,7 +1153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1773" uniqueCount="395">
   <si>
     <t>Название тестового сценария</t>
   </si>
@@ -2514,6 +2514,9 @@
   </si>
   <si>
     <t>Допустимые значения   service = 0 или  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIN - 1   </t>
   </si>
 </sst>
 </file>
@@ -4520,10 +4523,10 @@
   <sheetPr codeName="Лист1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:XFD578"/>
+  <dimension ref="A1:XFD650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C453" sqref="C453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -4781,7 +4784,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="48"/>
     </row>
-    <row r="18" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="18" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A18" s="198" t="s">
         <v>131</v>
       </c>
@@ -5303,7 +5306,7 @@
       <c r="G53" s="53"/>
       <c r="H53" s="53"/>
     </row>
-    <row r="54" spans="1:8" s="135" customFormat="1" ht="43.2" collapsed="1">
+    <row r="54" spans="1:8" s="135" customFormat="1" ht="28.8" collapsed="1">
       <c r="A54" s="136" t="s">
         <v>169</v>
       </c>
@@ -6329,7 +6332,7 @@
       <c r="F122" s="17"/>
       <c r="H122" s="19"/>
     </row>
-    <row r="123" spans="1:8" s="60" customFormat="1" ht="43.2" collapsed="1">
+    <row r="123" spans="1:8" s="60" customFormat="1" ht="28.8" collapsed="1">
       <c r="A123" s="126" t="s">
         <v>184</v>
       </c>
@@ -6641,7 +6644,7 @@
       <c r="G141" s="48"/>
       <c r="H141" s="48"/>
     </row>
-    <row r="142" spans="1:8" s="60" customFormat="1" ht="28.8">
+    <row r="142" spans="1:8" s="60" customFormat="1" ht="28.8" collapsed="1">
       <c r="A142" s="126" t="s">
         <v>137</v>
       </c>
@@ -6652,7 +6655,7 @@
       <c r="F142" s="64"/>
       <c r="H142" s="65"/>
     </row>
-    <row r="143" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="143" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A143" s="30" t="s">
         <v>290</v>
       </c>
@@ -6670,7 +6673,7 @@
       <c r="G143" s="127"/>
       <c r="H143" s="48"/>
     </row>
-    <row r="144" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="144" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A144" s="30" t="s">
         <v>289</v>
       </c>
@@ -6686,7 +6689,7 @@
       <c r="G144" s="21"/>
       <c r="H144" s="48"/>
     </row>
-    <row r="145" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="145" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A145" s="30" t="s">
         <v>187</v>
       </c>
@@ -6702,7 +6705,7 @@
       <c r="G145" s="21"/>
       <c r="H145" s="48"/>
     </row>
-    <row r="146" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="146" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A146" s="30" t="s">
         <v>274</v>
       </c>
@@ -6720,7 +6723,7 @@
       <c r="G146" s="21"/>
       <c r="H146" s="48"/>
     </row>
-    <row r="147" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="147" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A147" s="30" t="s">
         <v>188</v>
       </c>
@@ -6738,7 +6741,7 @@
       <c r="G147" s="21"/>
       <c r="H147" s="48"/>
     </row>
-    <row r="148" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="148" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A148" s="30" t="s">
         <v>189</v>
       </c>
@@ -6754,7 +6757,7 @@
       <c r="G148" s="21"/>
       <c r="H148" s="48"/>
     </row>
-    <row r="149" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="149" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A149" s="30" t="s">
         <v>291</v>
       </c>
@@ -6770,7 +6773,7 @@
       <c r="G149" s="21"/>
       <c r="H149" s="48"/>
     </row>
-    <row r="150" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="150" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A150" s="221" t="s">
         <v>376</v>
       </c>
@@ -6782,7 +6785,7 @@
       <c r="G150" s="21"/>
       <c r="H150" s="48"/>
     </row>
-    <row r="151" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="151" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A151" s="30" t="s">
         <v>387</v>
       </c>
@@ -6800,7 +6803,7 @@
       <c r="G151" s="21"/>
       <c r="H151" s="48"/>
     </row>
-    <row r="152" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="152" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A152" s="30" t="s">
         <v>388</v>
       </c>
@@ -6816,7 +6819,7 @@
       <c r="G152" s="21"/>
       <c r="H152" s="48"/>
     </row>
-    <row r="153" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="153" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A153" s="30" t="s">
         <v>389</v>
       </c>
@@ -6832,7 +6835,7 @@
       <c r="G153" s="21"/>
       <c r="H153" s="48"/>
     </row>
-    <row r="154" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="154" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A154" s="30" t="s">
         <v>390</v>
       </c>
@@ -6848,7 +6851,7 @@
       <c r="G154" s="21"/>
       <c r="H154" s="48"/>
     </row>
-    <row r="155" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="155" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A155" s="30" t="s">
         <v>188</v>
       </c>
@@ -6864,7 +6867,7 @@
       <c r="G155" s="21"/>
       <c r="H155" s="48"/>
     </row>
-    <row r="156" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="156" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A156" s="30" t="s">
         <v>391</v>
       </c>
@@ -6880,7 +6883,7 @@
       <c r="G156" s="21"/>
       <c r="H156" s="48"/>
     </row>
-    <row r="157" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="157" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A157" s="30" t="s">
         <v>392</v>
       </c>
@@ -6896,7 +6899,7 @@
       <c r="G157" s="21"/>
       <c r="H157" s="48"/>
     </row>
-    <row r="158" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="158" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A158" s="221" t="s">
         <v>185</v>
       </c>
@@ -6908,7 +6911,7 @@
       <c r="G158" s="21"/>
       <c r="H158" s="48"/>
     </row>
-    <row r="159" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="159" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A159" s="30" t="s">
         <v>152</v>
       </c>
@@ -6924,7 +6927,7 @@
       <c r="G159" s="21"/>
       <c r="H159" s="48"/>
     </row>
-    <row r="160" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="160" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A160" s="30" t="s">
         <v>153</v>
       </c>
@@ -6940,7 +6943,7 @@
       <c r="G160" s="21"/>
       <c r="H160" s="48"/>
     </row>
-    <row r="161" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="161" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A161" s="30" t="s">
         <v>292</v>
       </c>
@@ -6956,7 +6959,7 @@
       <c r="G161" s="21"/>
       <c r="H161" s="48"/>
     </row>
-    <row r="162" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="162" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A162" s="30" t="s">
         <v>293</v>
       </c>
@@ -6972,7 +6975,7 @@
       <c r="G162" s="21"/>
       <c r="H162" s="48"/>
     </row>
-    <row r="163" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="163" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A163" s="30" t="s">
         <v>294</v>
       </c>
@@ -6988,7 +6991,7 @@
       <c r="G163" s="21"/>
       <c r="H163" s="48"/>
     </row>
-    <row r="164" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="164" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A164" s="30" t="s">
         <v>295</v>
       </c>
@@ -7004,7 +7007,7 @@
       <c r="G164" s="21"/>
       <c r="H164" s="48"/>
     </row>
-    <row r="165" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="165" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A165" s="30" t="s">
         <v>296</v>
       </c>
@@ -7020,7 +7023,7 @@
       <c r="G165" s="48"/>
       <c r="H165" s="48"/>
     </row>
-    <row r="166" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="166" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A166" s="30" t="s">
         <v>297</v>
       </c>
@@ -7036,7 +7039,7 @@
       <c r="G166" s="48"/>
       <c r="H166" s="48"/>
     </row>
-    <row r="167" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="167" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A167" s="30" t="s">
         <v>298</v>
       </c>
@@ -7052,7 +7055,7 @@
       <c r="G167" s="48"/>
       <c r="H167" s="48"/>
     </row>
-    <row r="168" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="168" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A168" s="30" t="s">
         <v>301</v>
       </c>
@@ -7068,7 +7071,7 @@
       <c r="G168" s="48"/>
       <c r="H168" s="48"/>
     </row>
-    <row r="169" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="169" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A169" s="30" t="s">
         <v>299</v>
       </c>
@@ -7084,7 +7087,7 @@
       <c r="G169" s="48"/>
       <c r="H169" s="48"/>
     </row>
-    <row r="170" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="170" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A170" s="30" t="s">
         <v>300</v>
       </c>
@@ -7100,7 +7103,7 @@
       <c r="G170" s="48"/>
       <c r="H170" s="48"/>
     </row>
-    <row r="171" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="171" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A171" s="30" t="s">
         <v>302</v>
       </c>
@@ -7116,7 +7119,7 @@
       <c r="G171" s="48"/>
       <c r="H171" s="48"/>
     </row>
-    <row r="172" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="172" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A172" s="30" t="s">
         <v>303</v>
       </c>
@@ -7132,7 +7135,7 @@
       <c r="G172" s="48"/>
       <c r="H172" s="48"/>
     </row>
-    <row r="173" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="173" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A173" s="30" t="s">
         <v>304</v>
       </c>
@@ -7148,7 +7151,7 @@
       <c r="G173" s="48"/>
       <c r="H173" s="48"/>
     </row>
-    <row r="174" spans="1:8" s="125" customFormat="1" outlineLevel="1">
+    <row r="174" spans="1:8" s="125" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A174" s="121" t="s">
         <v>138</v>
       </c>
@@ -7160,7 +7163,7 @@
       <c r="G174" s="39"/>
       <c r="H174" s="39"/>
     </row>
-    <row r="175" spans="1:8" s="218" customFormat="1" outlineLevel="1">
+    <row r="175" spans="1:8" s="218" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A175" s="221" t="s">
         <v>362</v>
       </c>
@@ -7172,7 +7175,7 @@
       <c r="G175" s="48"/>
       <c r="H175" s="48"/>
     </row>
-    <row r="176" spans="1:8" s="218" customFormat="1" outlineLevel="1">
+    <row r="176" spans="1:8" s="218" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A176" s="30" t="s">
         <v>190</v>
       </c>
@@ -7188,7 +7191,7 @@
       <c r="G176" s="21"/>
       <c r="H176" s="48"/>
     </row>
-    <row r="177" spans="1:8" s="218" customFormat="1" outlineLevel="1">
+    <row r="177" spans="1:8" s="218" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A177" s="30" t="s">
         <v>305</v>
       </c>
@@ -7204,7 +7207,7 @@
       <c r="G177" s="21"/>
       <c r="H177" s="48"/>
     </row>
-    <row r="178" spans="1:8" s="218" customFormat="1" outlineLevel="1">
+    <row r="178" spans="1:8" s="218" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A178" s="30" t="s">
         <v>306</v>
       </c>
@@ -7220,7 +7223,7 @@
       <c r="G178" s="21"/>
       <c r="H178" s="48"/>
     </row>
-    <row r="179" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="179" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A179" s="30" t="s">
         <v>307</v>
       </c>
@@ -7236,7 +7239,7 @@
       <c r="G179" s="21"/>
       <c r="H179" s="48"/>
     </row>
-    <row r="180" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="180" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A180" s="30" t="s">
         <v>150</v>
       </c>
@@ -7252,7 +7255,7 @@
       <c r="G180" s="21"/>
       <c r="H180" s="48"/>
     </row>
-    <row r="181" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="181" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A181" s="30" t="s">
         <v>149</v>
       </c>
@@ -7268,7 +7271,7 @@
       <c r="G181" s="21"/>
       <c r="H181" s="48"/>
     </row>
-    <row r="182" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="182" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A182" s="30" t="s">
         <v>151</v>
       </c>
@@ -7284,7 +7287,7 @@
       <c r="G182" s="21"/>
       <c r="H182" s="48"/>
     </row>
-    <row r="183" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="183" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A183" s="30" t="s">
         <v>145</v>
       </c>
@@ -7300,7 +7303,7 @@
       <c r="G183" s="21"/>
       <c r="H183" s="48"/>
     </row>
-    <row r="184" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="184" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A184" s="30" t="s">
         <v>146</v>
       </c>
@@ -7316,7 +7319,7 @@
       <c r="G184" s="21"/>
       <c r="H184" s="48"/>
     </row>
-    <row r="185" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="185" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A185" s="30" t="s">
         <v>147</v>
       </c>
@@ -7332,7 +7335,7 @@
       <c r="G185" s="21"/>
       <c r="H185" s="48"/>
     </row>
-    <row r="186" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="186" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A186" s="30" t="s">
         <v>148</v>
       </c>
@@ -7348,7 +7351,7 @@
       <c r="G186" s="21"/>
       <c r="H186" s="48"/>
     </row>
-    <row r="187" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="187" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A187" s="221" t="s">
         <v>370</v>
       </c>
@@ -7360,7 +7363,7 @@
       <c r="G187" s="21"/>
       <c r="H187" s="48"/>
     </row>
-    <row r="188" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="188" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A188" s="30" t="s">
         <v>308</v>
       </c>
@@ -7376,7 +7379,7 @@
       <c r="G188" s="21"/>
       <c r="H188" s="48"/>
     </row>
-    <row r="189" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="189" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A189" s="30" t="s">
         <v>309</v>
       </c>
@@ -7392,7 +7395,7 @@
       <c r="G189" s="21"/>
       <c r="H189" s="48"/>
     </row>
-    <row r="190" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="190" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A190" s="30" t="s">
         <v>315</v>
       </c>
@@ -7404,7 +7407,7 @@
       <c r="G190" s="21"/>
       <c r="H190" s="48"/>
     </row>
-    <row r="191" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="191" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A191" s="30" t="s">
         <v>310</v>
       </c>
@@ -7420,7 +7423,7 @@
       <c r="G191" s="21"/>
       <c r="H191" s="48"/>
     </row>
-    <row r="192" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="192" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A192" s="30" t="s">
         <v>312</v>
       </c>
@@ -7436,7 +7439,7 @@
       <c r="G192" s="21"/>
       <c r="H192" s="48"/>
     </row>
-    <row r="193" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="193" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A193" s="30" t="s">
         <v>310</v>
       </c>
@@ -7448,7 +7451,7 @@
       <c r="G193" s="21"/>
       <c r="H193" s="48"/>
     </row>
-    <row r="194" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="194" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A194" s="30" t="s">
         <v>311</v>
       </c>
@@ -7464,7 +7467,7 @@
       <c r="G194" s="21"/>
       <c r="H194" s="48"/>
     </row>
-    <row r="195" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="195" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A195" s="30" t="s">
         <v>313</v>
       </c>
@@ -7476,7 +7479,7 @@
       <c r="G195" s="21"/>
       <c r="H195" s="48"/>
     </row>
-    <row r="196" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="196" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A196" s="30" t="s">
         <v>314</v>
       </c>
@@ -7492,7 +7495,7 @@
       <c r="G196" s="21"/>
       <c r="H196" s="48"/>
     </row>
-    <row r="197" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="197" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A197" s="30" t="s">
         <v>316</v>
       </c>
@@ -7508,7 +7511,7 @@
       <c r="G197" s="21"/>
       <c r="H197" s="48"/>
     </row>
-    <row r="198" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="198" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A198" s="30" t="s">
         <v>139</v>
       </c>
@@ -7524,7 +7527,7 @@
       <c r="G198" s="21"/>
       <c r="H198" s="48"/>
     </row>
-    <row r="199" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="199" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A199" s="30" t="s">
         <v>140</v>
       </c>
@@ -7540,7 +7543,7 @@
       <c r="G199" s="21"/>
       <c r="H199" s="48"/>
     </row>
-    <row r="200" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="200" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A200" s="30" t="s">
         <v>144</v>
       </c>
@@ -7556,7 +7559,7 @@
       <c r="G200" s="21"/>
       <c r="H200" s="48"/>
     </row>
-    <row r="201" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="201" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A201" s="30" t="s">
         <v>141</v>
       </c>
@@ -7572,7 +7575,7 @@
       <c r="G201" s="21"/>
       <c r="H201" s="48"/>
     </row>
-    <row r="202" spans="1:8" s="22" customFormat="1" ht="19.2" customHeight="1" outlineLevel="1">
+    <row r="202" spans="1:8" s="22" customFormat="1" ht="19.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A202" s="30" t="s">
         <v>142</v>
       </c>
@@ -7588,7 +7591,7 @@
       <c r="G202" s="21"/>
       <c r="H202" s="48"/>
     </row>
-    <row r="203" spans="1:8" s="22" customFormat="1" ht="19.2" customHeight="1" outlineLevel="1">
+    <row r="203" spans="1:8" s="22" customFormat="1" ht="19.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A203" s="221" t="s">
         <v>378</v>
       </c>
@@ -7600,7 +7603,7 @@
       <c r="G203" s="127"/>
       <c r="H203" s="48"/>
     </row>
-    <row r="204" spans="1:8" s="22" customFormat="1" ht="19.2" customHeight="1" outlineLevel="1">
+    <row r="204" spans="1:8" s="22" customFormat="1" ht="19.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A204" s="30" t="s">
         <v>386</v>
       </c>
@@ -7616,7 +7619,7 @@
       <c r="G204" s="127"/>
       <c r="H204" s="48"/>
     </row>
-    <row r="205" spans="1:8" s="22" customFormat="1" ht="19.2" customHeight="1" outlineLevel="1">
+    <row r="205" spans="1:8" s="22" customFormat="1" ht="19.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A205" s="30" t="s">
         <v>385</v>
       </c>
@@ -7632,7 +7635,7 @@
       <c r="G205" s="127"/>
       <c r="H205" s="48"/>
     </row>
-    <row r="206" spans="1:8" s="22" customFormat="1" ht="19.2" customHeight="1" outlineLevel="1">
+    <row r="206" spans="1:8" s="22" customFormat="1" ht="19.2" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A206" s="30" t="s">
         <v>384</v>
       </c>
@@ -7648,7 +7651,7 @@
       <c r="G206" s="127"/>
       <c r="H206" s="48"/>
     </row>
-    <row r="207" spans="1:8" s="22" customFormat="1" ht="31.8" customHeight="1" outlineLevel="1">
+    <row r="207" spans="1:8" s="22" customFormat="1" ht="31.8" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A207" s="30" t="s">
         <v>383</v>
       </c>
@@ -7664,7 +7667,7 @@
       <c r="G207" s="127"/>
       <c r="H207" s="48"/>
     </row>
-    <row r="208" spans="1:8" s="22" customFormat="1" ht="35.4" customHeight="1" outlineLevel="1">
+    <row r="208" spans="1:8" s="22" customFormat="1" ht="35.4" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A208" s="30" t="s">
         <v>382</v>
       </c>
@@ -7680,7 +7683,7 @@
       <c r="G208" s="127"/>
       <c r="H208" s="48"/>
     </row>
-    <row r="209" spans="1:8" s="22" customFormat="1" ht="30" customHeight="1" outlineLevel="1">
+    <row r="209" spans="1:8" s="22" customFormat="1" ht="30" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A209" s="30" t="s">
         <v>379</v>
       </c>
@@ -7696,7 +7699,7 @@
       <c r="G209" s="127"/>
       <c r="H209" s="48"/>
     </row>
-    <row r="210" spans="1:8" s="22" customFormat="1" ht="34.799999999999997" customHeight="1" outlineLevel="1">
+    <row r="210" spans="1:8" s="22" customFormat="1" ht="34.799999999999997" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A210" s="30" t="s">
         <v>381</v>
       </c>
@@ -7712,7 +7715,7 @@
       <c r="G210" s="127"/>
       <c r="H210" s="48"/>
     </row>
-    <row r="211" spans="1:8" s="22" customFormat="1" ht="33.6" customHeight="1" outlineLevel="1">
+    <row r="211" spans="1:8" s="22" customFormat="1" ht="33.6" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A211" s="30" t="s">
         <v>380</v>
       </c>
@@ -7728,7 +7731,7 @@
       <c r="G211" s="127"/>
       <c r="H211" s="48"/>
     </row>
-    <row r="212" spans="1:8" s="268" customFormat="1" ht="28.8">
+    <row r="212" spans="1:8" s="268" customFormat="1" ht="28.8" collapsed="1">
       <c r="A212" s="232" t="s">
         <v>183</v>
       </c>
@@ -7740,7 +7743,7 @@
       <c r="G212" s="267"/>
       <c r="H212" s="266"/>
     </row>
-    <row r="213" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="213" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A213" s="233" t="s">
         <v>186</v>
       </c>
@@ -7756,7 +7759,7 @@
       </c>
       <c r="H213" s="19"/>
     </row>
-    <row r="214" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="214" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A214" s="233" t="s">
         <v>73</v>
       </c>
@@ -7771,7 +7774,7 @@
       </c>
       <c r="H214" s="19"/>
     </row>
-    <row r="215" spans="1:8" s="239" customFormat="1" outlineLevel="1">
+    <row r="215" spans="1:8" s="239" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A215" s="234" t="s">
         <v>63</v>
       </c>
@@ -7782,7 +7785,7 @@
       <c r="F215" s="238"/>
       <c r="H215" s="240"/>
     </row>
-    <row r="216" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="216" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A216" s="30" t="s">
         <v>56</v>
       </c>
@@ -7798,7 +7801,7 @@
       <c r="G216" s="48"/>
       <c r="H216" s="48"/>
     </row>
-    <row r="217" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="217" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A217" s="30" t="s">
         <v>117</v>
       </c>
@@ -7814,7 +7817,7 @@
       <c r="G217" s="48"/>
       <c r="H217" s="48"/>
     </row>
-    <row r="218" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="218" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A218" s="30" t="s">
         <v>118</v>
       </c>
@@ -7830,7 +7833,7 @@
       <c r="G218" s="48"/>
       <c r="H218" s="48"/>
     </row>
-    <row r="219" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="219" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A219" s="30" t="s">
         <v>23</v>
       </c>
@@ -7846,7 +7849,7 @@
       <c r="G219" s="48"/>
       <c r="H219" s="48"/>
     </row>
-    <row r="220" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="220" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A220" s="30" t="s">
         <v>33</v>
       </c>
@@ -7864,7 +7867,7 @@
       <c r="G220" s="48"/>
       <c r="H220" s="48"/>
     </row>
-    <row r="221" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="221" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A221" s="30" t="s">
         <v>42</v>
       </c>
@@ -7882,7 +7885,7 @@
       <c r="G221" s="48"/>
       <c r="H221" s="48"/>
     </row>
-    <row r="222" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="222" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A222" s="30" t="s">
         <v>122</v>
       </c>
@@ -7900,7 +7903,7 @@
       <c r="G222" s="48"/>
       <c r="H222" s="48"/>
     </row>
-    <row r="223" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="223" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A223" s="30" t="s">
         <v>191</v>
       </c>
@@ -7918,7 +7921,7 @@
       <c r="G223" s="48"/>
       <c r="H223" s="48"/>
     </row>
-    <row r="224" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="224" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A224" s="105" t="s">
         <v>49</v>
       </c>
@@ -7936,7 +7939,7 @@
       <c r="G224" s="48"/>
       <c r="H224" s="48"/>
     </row>
-    <row r="225" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="225" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A225" s="30" t="s">
         <v>12</v>
       </c>
@@ -7954,7 +7957,7 @@
       <c r="G225" s="48"/>
       <c r="H225" s="48"/>
     </row>
-    <row r="226" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="1">
+    <row r="226" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
       <c r="A226" s="341" t="s">
         <v>26</v>
       </c>
@@ -7972,7 +7975,7 @@
       <c r="G226" s="48"/>
       <c r="H226" s="48"/>
     </row>
-    <row r="227" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="227" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A227" s="342"/>
       <c r="B227" s="133"/>
       <c r="C227" s="10" t="s">
@@ -7988,7 +7991,7 @@
       <c r="G227" s="48"/>
       <c r="H227" s="48"/>
     </row>
-    <row r="228" spans="1:8" s="22" customFormat="1" ht="15.6" outlineLevel="1">
+    <row r="228" spans="1:8" s="22" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
       <c r="A228" s="292" t="s">
         <v>250</v>
       </c>
@@ -8004,7 +8007,7 @@
       <c r="G228" s="48"/>
       <c r="H228" s="48"/>
     </row>
-    <row r="229" spans="1:8" s="22" customFormat="1" ht="15.6" outlineLevel="1">
+    <row r="229" spans="1:8" s="22" customFormat="1" ht="15.6" hidden="1" outlineLevel="1">
       <c r="A229" s="292" t="s">
         <v>251</v>
       </c>
@@ -8020,7 +8023,7 @@
       <c r="G229" s="48"/>
       <c r="H229" s="48"/>
     </row>
-    <row r="230" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+    <row r="230" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A230" s="10" t="s">
         <v>16</v>
       </c>
@@ -9112,7 +9115,7 @@
       <c r="G295" s="127"/>
       <c r="H295" s="48"/>
     </row>
-    <row r="296" spans="1:8" s="60" customFormat="1" ht="43.2" collapsed="1">
+    <row r="296" spans="1:8" s="60" customFormat="1" ht="28.8" collapsed="1">
       <c r="A296" s="126" t="s">
         <v>71</v>
       </c>
@@ -9288,7 +9291,7 @@
       <c r="G306" s="48"/>
       <c r="H306" s="48"/>
     </row>
-    <row r="307" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="307" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A307" s="30" t="s">
         <v>124</v>
       </c>
@@ -26346,7 +26349,7 @@
       <c r="G347" s="48"/>
       <c r="H347" s="48"/>
     </row>
-    <row r="348" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="348" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A348" s="30" t="s">
         <v>121</v>
       </c>
@@ -27026,7 +27029,7 @@
       <c r="G388" s="48"/>
       <c r="H388" s="48"/>
     </row>
-    <row r="389" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="389" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A389" s="30" t="s">
         <v>121</v>
       </c>
@@ -27704,7 +27707,7 @@
       <c r="G429" s="48"/>
       <c r="H429" s="48"/>
     </row>
-    <row r="430" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="430" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
       <c r="A430" s="30" t="s">
         <v>121</v>
       </c>
@@ -27828,7 +27831,7 @@
       <c r="G436" s="48"/>
       <c r="H436" s="48"/>
     </row>
-    <row r="437" spans="1:8" s="60" customFormat="1" ht="28.8" collapsed="1">
+    <row r="437" spans="1:8" s="60" customFormat="1" ht="28.8">
       <c r="A437" s="126" t="s">
         <v>81</v>
       </c>
@@ -27840,7 +27843,7 @@
       <c r="G437" s="120"/>
       <c r="H437" s="120"/>
     </row>
-    <row r="438" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="438" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A438" s="10" t="s">
         <v>283</v>
       </c>
@@ -27856,7 +27859,7 @@
       <c r="G438" s="48"/>
       <c r="H438" s="48"/>
     </row>
-    <row r="439" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="439" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A439" s="10" t="s">
         <v>318</v>
       </c>
@@ -27872,7 +27875,7 @@
       <c r="G439" s="48"/>
       <c r="H439" s="48"/>
     </row>
-    <row r="440" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="440" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A440" s="30" t="s">
         <v>327</v>
       </c>
@@ -27888,7 +27891,7 @@
       <c r="G440" s="48"/>
       <c r="H440" s="48"/>
     </row>
-    <row r="441" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="441" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A441" s="30" t="s">
         <v>328</v>
       </c>
@@ -27904,7 +27907,7 @@
       <c r="G441" s="48"/>
       <c r="H441" s="48"/>
     </row>
-    <row r="442" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="442" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A442" s="30" t="s">
         <v>329</v>
       </c>
@@ -27920,7 +27923,7 @@
       <c r="G442" s="48"/>
       <c r="H442" s="48"/>
     </row>
-    <row r="443" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="443" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A443" s="30" t="s">
         <v>64</v>
       </c>
@@ -27938,7 +27941,7 @@
       <c r="G443" s="48"/>
       <c r="H443" s="48"/>
     </row>
-    <row r="444" spans="1:8" s="125" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+    <row r="444" spans="1:8" s="125" customFormat="1" outlineLevel="1">
       <c r="A444" s="121" t="s">
         <v>66</v>
       </c>
@@ -27950,9 +27953,9 @@
       <c r="G444" s="39"/>
       <c r="H444" s="39"/>
     </row>
-    <row r="445" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="445" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A445" s="10" t="s">
-        <v>14</v>
+        <v>394</v>
       </c>
       <c r="B445" s="25"/>
       <c r="C445" s="46"/>
@@ -27966,7 +27969,7 @@
       <c r="G445" s="48"/>
       <c r="H445" s="48"/>
     </row>
-    <row r="446" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="446" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A446" s="10" t="s">
         <v>61</v>
       </c>
@@ -27982,7 +27985,7 @@
       <c r="G446" s="48"/>
       <c r="H446" s="48"/>
     </row>
-    <row r="447" spans="1:8" s="22" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
+    <row r="447" spans="1:8" s="22" customFormat="1" ht="57.6" outlineLevel="2">
       <c r="A447" s="102" t="s">
         <v>38</v>
       </c>
@@ -28000,7 +28003,7 @@
       <c r="G447" s="48"/>
       <c r="H447" s="48"/>
     </row>
-    <row r="448" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="448" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A448" s="322" t="s">
         <v>319</v>
       </c>
@@ -28018,7 +28021,7 @@
       <c r="G448" s="48"/>
       <c r="H448" s="48"/>
     </row>
-    <row r="449" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="449" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A449" s="322" t="s">
         <v>320</v>
       </c>
@@ -28030,7 +28033,7 @@
       <c r="G449" s="48"/>
       <c r="H449" s="48"/>
     </row>
-    <row r="450" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="450" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A450" s="10" t="s">
         <v>23</v>
       </c>
@@ -28048,7 +28051,7 @@
       <c r="G450" s="48"/>
       <c r="H450" s="48"/>
     </row>
-    <row r="451" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="451" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A451" s="10" t="s">
         <v>21</v>
       </c>
@@ -28066,7 +28069,7 @@
       <c r="G451" s="48"/>
       <c r="H451" s="48"/>
     </row>
-    <row r="452" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="452" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A452" s="10" t="s">
         <v>40</v>
       </c>
@@ -28084,7 +28087,7 @@
       <c r="G452" s="48"/>
       <c r="H452" s="48"/>
     </row>
-    <row r="453" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="453" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A453" s="10" t="s">
         <v>16</v>
       </c>
@@ -28102,7 +28105,7 @@
       <c r="G453" s="48"/>
       <c r="H453" s="48"/>
     </row>
-    <row r="454" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="454" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A454" s="10" t="s">
         <v>29</v>
       </c>
@@ -28120,7 +28123,7 @@
       <c r="G454" s="48"/>
       <c r="H454" s="48"/>
     </row>
-    <row r="455" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="455" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A455" s="10" t="s">
         <v>11</v>
       </c>
@@ -28136,7 +28139,7 @@
       <c r="G455" s="48"/>
       <c r="H455" s="48"/>
     </row>
-    <row r="456" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="456" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A456" s="10" t="s">
         <v>20</v>
       </c>
@@ -28154,7 +28157,7 @@
       <c r="G456" s="48"/>
       <c r="H456" s="48"/>
     </row>
-    <row r="457" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="457" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A457" s="105" t="s">
         <v>49</v>
       </c>
@@ -28172,7 +28175,7 @@
       <c r="G457" s="48"/>
       <c r="H457" s="48"/>
     </row>
-    <row r="458" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="458" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A458" s="30" t="s">
         <v>12</v>
       </c>
@@ -28190,7 +28193,7 @@
       <c r="G458" s="48"/>
       <c r="H458" s="48"/>
     </row>
-    <row r="459" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
+    <row r="459" spans="1:8" s="22" customFormat="1" ht="28.8" outlineLevel="2">
       <c r="A459" s="30" t="s">
         <v>26</v>
       </c>
@@ -28208,7 +28211,7 @@
       <c r="G459" s="48"/>
       <c r="H459" s="48"/>
     </row>
-    <row r="460" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+    <row r="460" spans="1:8" s="22" customFormat="1" outlineLevel="2">
       <c r="A460" s="30"/>
       <c r="B460" s="25"/>
       <c r="C460" s="177" t="s">
@@ -28224,7 +28227,7 @@
       <c r="G460" s="48"/>
       <c r="H460" s="48"/>
     </row>
-    <row r="461" spans="1:8" s="60" customFormat="1" ht="28.8" collapsed="1">
+    <row r="461" spans="1:8" s="60" customFormat="1" ht="29.4" thickBot="1">
       <c r="A461" s="126" t="s">
         <v>82</v>
       </c>
@@ -28236,7 +28239,7 @@
       <c r="G461" s="120"/>
       <c r="H461" s="120"/>
     </row>
-    <row r="462" spans="1:8" s="22" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1">
+    <row r="462" spans="1:8" s="22" customFormat="1" ht="15" outlineLevel="1" thickBot="1">
       <c r="A462" s="10" t="s">
         <v>31</v>
       </c>
@@ -28254,7 +28257,7 @@
       <c r="G462" s="48"/>
       <c r="H462" s="48"/>
     </row>
-    <row r="463" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="463" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A463" s="10" t="s">
         <v>55</v>
       </c>
@@ -28270,7 +28273,7 @@
       <c r="G463" s="48"/>
       <c r="H463" s="48"/>
     </row>
-    <row r="464" spans="1:8" s="28" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="464" spans="1:8" s="28" customFormat="1" outlineLevel="1">
       <c r="A464" s="121" t="s">
         <v>63</v>
       </c>
@@ -28282,7 +28285,7 @@
       <c r="G464" s="39"/>
       <c r="H464" s="39"/>
     </row>
-    <row r="465" spans="1:8" s="22" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1">
+    <row r="465" spans="1:8" s="22" customFormat="1" ht="16.2" customHeight="1" outlineLevel="1">
       <c r="A465" s="30" t="s">
         <v>56</v>
       </c>
@@ -28298,7 +28301,7 @@
       <c r="G465" s="48"/>
       <c r="H465" s="48"/>
     </row>
-    <row r="466" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="466" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A466" s="30" t="s">
         <v>117</v>
       </c>
@@ -28314,7 +28317,7 @@
       <c r="G466" s="48"/>
       <c r="H466" s="48"/>
     </row>
-    <row r="467" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="467" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A467" s="30" t="s">
         <v>57</v>
       </c>
@@ -28330,7 +28333,7 @@
       <c r="G467" s="48"/>
       <c r="H467" s="48"/>
     </row>
-    <row r="468" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="468" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A468" s="30" t="s">
         <v>23</v>
       </c>
@@ -28346,7 +28349,7 @@
       <c r="G468" s="48"/>
       <c r="H468" s="48"/>
     </row>
-    <row r="469" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="469" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A469" s="30" t="s">
         <v>35</v>
       </c>
@@ -28360,7 +28363,7 @@
       <c r="G469" s="48"/>
       <c r="H469" s="48"/>
     </row>
-    <row r="470" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="470" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A470" s="30" t="s">
         <v>33</v>
       </c>
@@ -28378,7 +28381,7 @@
       <c r="G470" s="48"/>
       <c r="H470" s="48"/>
     </row>
-    <row r="471" spans="1:8" s="214" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="471" spans="1:8" s="214" customFormat="1" outlineLevel="1">
       <c r="A471" s="30" t="s">
         <v>42</v>
       </c>
@@ -28396,7 +28399,7 @@
       <c r="G471" s="213"/>
       <c r="H471" s="213"/>
     </row>
-    <row r="472" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="472" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A472" s="30" t="s">
         <v>121</v>
       </c>
@@ -28414,7 +28417,7 @@
       <c r="G472" s="48"/>
       <c r="H472" s="48"/>
     </row>
-    <row r="473" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="473" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A473" s="30" t="s">
         <v>47</v>
       </c>
@@ -28432,7 +28435,7 @@
       <c r="G473" s="48"/>
       <c r="H473" s="48"/>
     </row>
-    <row r="474" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="474" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A474" s="105" t="s">
         <v>49</v>
       </c>
@@ -28450,7 +28453,7 @@
       <c r="G474" s="48"/>
       <c r="H474" s="48"/>
     </row>
-    <row r="475" spans="1:8" s="216" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="475" spans="1:8" s="216" customFormat="1" outlineLevel="1">
       <c r="A475" s="30" t="s">
         <v>12</v>
       </c>
@@ -28468,7 +28471,7 @@
       <c r="G475" s="215"/>
       <c r="H475" s="215"/>
     </row>
-    <row r="476" spans="1:8" s="216" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+    <row r="476" spans="1:8" s="216" customFormat="1" ht="28.8" outlineLevel="1">
       <c r="A476" s="341" t="s">
         <v>26</v>
       </c>
@@ -28486,7 +28489,7 @@
       <c r="G476" s="215"/>
       <c r="H476" s="215"/>
     </row>
-    <row r="477" spans="1:8" s="216" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="477" spans="1:8" s="216" customFormat="1" outlineLevel="1">
       <c r="A477" s="342"/>
       <c r="B477" s="133"/>
       <c r="C477" s="10" t="s">
@@ -28502,7 +28505,7 @@
       <c r="G477" s="215"/>
       <c r="H477" s="215"/>
     </row>
-    <row r="478" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+    <row r="478" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A478" s="30" t="s">
         <v>16</v>
       </c>
@@ -28520,1538 +28523,2258 @@
       <c r="G478" s="48"/>
       <c r="H478" s="48"/>
     </row>
-    <row r="479" spans="1:8" s="83" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A479" s="157" t="s">
-        <v>8</v>
-      </c>
-      <c r="B479" s="78"/>
-      <c r="C479" s="79"/>
-      <c r="D479" s="80"/>
-      <c r="E479" s="81"/>
-      <c r="F479" s="82"/>
-      <c r="H479" s="84"/>
-    </row>
-    <row r="480" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
-      <c r="A480" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="B480" s="91"/>
-      <c r="C480" s="92"/>
-      <c r="D480" s="61"/>
-      <c r="E480" s="63"/>
-      <c r="F480" s="93"/>
-      <c r="H480" s="95"/>
-    </row>
-    <row r="481" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A481" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B481" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C481" s="14"/>
-      <c r="D481" s="206"/>
-      <c r="E481" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F481" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H481" s="35"/>
-    </row>
-    <row r="482" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A482" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B482" s="26"/>
-      <c r="C482" s="14"/>
-      <c r="D482" s="207"/>
-      <c r="E482" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F482" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H482" s="35"/>
-    </row>
-    <row r="483" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A483" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B483" s="26"/>
-      <c r="C483" s="14"/>
-      <c r="D483" s="207"/>
-      <c r="E483" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F483" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H483" s="35"/>
-    </row>
-    <row r="484" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A484" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B484" s="26"/>
-      <c r="C484" s="14"/>
-      <c r="D484" s="207"/>
-      <c r="E484" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F484" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H484" s="35"/>
-    </row>
-    <row r="485" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A485" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B485" s="26"/>
-      <c r="C485" s="14"/>
-      <c r="D485" s="208"/>
-      <c r="E485" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F485" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H485" s="35"/>
-    </row>
-    <row r="486" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A486" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B486" s="26"/>
-      <c r="C486" s="14"/>
-      <c r="D486" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E486" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F486" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H486" s="35"/>
-    </row>
-    <row r="487" spans="1:8" s="89" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A487" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="B487" s="85"/>
-      <c r="C487" s="86"/>
-      <c r="D487" s="110"/>
-      <c r="E487" s="87"/>
-      <c r="F487" s="88"/>
-      <c r="H487" s="90"/>
-    </row>
-    <row r="488" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A488" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D488" s="337" t="s">
-        <v>32</v>
-      </c>
-      <c r="E488" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F488" s="34" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A489" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B489" s="10"/>
+    <row r="479" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A479" s="30"/>
+      <c r="B479" s="133"/>
+      <c r="C479" s="10"/>
+      <c r="D479" s="14"/>
+      <c r="E479" s="174"/>
+      <c r="F479" s="194"/>
+      <c r="G479" s="48"/>
+      <c r="H479" s="48"/>
+    </row>
+    <row r="480" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A480" s="30"/>
+      <c r="B480" s="133"/>
+      <c r="C480" s="10"/>
+      <c r="D480" s="14"/>
+      <c r="E480" s="174"/>
+      <c r="F480" s="194"/>
+      <c r="G480" s="48"/>
+      <c r="H480" s="48"/>
+    </row>
+    <row r="481" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A481" s="30"/>
+      <c r="B481" s="133"/>
+      <c r="C481" s="10"/>
+      <c r="D481" s="14"/>
+      <c r="E481" s="174"/>
+      <c r="F481" s="194"/>
+      <c r="G481" s="48"/>
+      <c r="H481" s="48"/>
+    </row>
+    <row r="482" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A482" s="30"/>
+      <c r="B482" s="133"/>
+      <c r="C482" s="10"/>
+      <c r="D482" s="14"/>
+      <c r="E482" s="174"/>
+      <c r="F482" s="194"/>
+      <c r="G482" s="48"/>
+      <c r="H482" s="48"/>
+    </row>
+    <row r="483" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A483" s="30"/>
+      <c r="B483" s="133"/>
+      <c r="C483" s="10"/>
+      <c r="D483" s="14"/>
+      <c r="E483" s="174"/>
+      <c r="F483" s="194"/>
+      <c r="G483" s="48"/>
+      <c r="H483" s="48"/>
+    </row>
+    <row r="484" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A484" s="30"/>
+      <c r="B484" s="133"/>
+      <c r="C484" s="10"/>
+      <c r="D484" s="14"/>
+      <c r="E484" s="174"/>
+      <c r="F484" s="194"/>
+      <c r="G484" s="48"/>
+      <c r="H484" s="48"/>
+    </row>
+    <row r="485" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A485" s="30"/>
+      <c r="B485" s="133"/>
+      <c r="C485" s="10"/>
+      <c r="D485" s="14"/>
+      <c r="E485" s="174"/>
+      <c r="F485" s="194"/>
+      <c r="G485" s="48"/>
+      <c r="H485" s="48"/>
+    </row>
+    <row r="486" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A486" s="30"/>
+      <c r="B486" s="133"/>
+      <c r="C486" s="10"/>
+      <c r="D486" s="14"/>
+      <c r="E486" s="174"/>
+      <c r="F486" s="194"/>
+      <c r="G486" s="48"/>
+      <c r="H486" s="48"/>
+    </row>
+    <row r="487" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A487" s="30"/>
+      <c r="B487" s="133"/>
+      <c r="C487" s="10"/>
+      <c r="D487" s="14"/>
+      <c r="E487" s="174"/>
+      <c r="F487" s="194"/>
+      <c r="G487" s="48"/>
+      <c r="H487" s="48"/>
+    </row>
+    <row r="488" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A488" s="30"/>
+      <c r="B488" s="133"/>
+      <c r="C488" s="10"/>
+      <c r="D488" s="14"/>
+      <c r="E488" s="174"/>
+      <c r="F488" s="194"/>
+      <c r="G488" s="48"/>
+      <c r="H488" s="48"/>
+    </row>
+    <row r="489" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A489" s="30"/>
+      <c r="B489" s="133"/>
       <c r="C489" s="10"/>
-      <c r="D489" s="338"/>
-      <c r="E489" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F489" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G489" s="22"/>
-      <c r="H489" s="19"/>
-    </row>
-    <row r="490" spans="1:8" s="15" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
-      <c r="A490" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="B490" s="10"/>
-      <c r="C490" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="D490" s="338"/>
-      <c r="E490" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F490" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G490" s="22"/>
-      <c r="H490" s="19"/>
-    </row>
-    <row r="491" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A491" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B491" s="10"/>
-      <c r="C491" s="98">
-        <v>2147483648</v>
-      </c>
-      <c r="D491" s="338"/>
-      <c r="E491" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F491" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G491" s="22"/>
-      <c r="H491" s="19"/>
-    </row>
-    <row r="492" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A492" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B492" s="10"/>
-      <c r="C492" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D492" s="338"/>
-      <c r="E492" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F492" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G492" s="22"/>
-      <c r="H492" s="19"/>
-    </row>
-    <row r="493" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A493" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B493" s="10"/>
-      <c r="C493" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D493" s="338"/>
-      <c r="E493" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F493" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G493" s="22"/>
-      <c r="H493" s="19"/>
-    </row>
-    <row r="494" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A494" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B494" s="10"/>
-      <c r="C494" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D494" s="338"/>
-      <c r="E494" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F494" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G494" s="22"/>
-      <c r="H494" s="19"/>
-    </row>
-    <row r="495" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A495" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B495" s="10"/>
-      <c r="C495" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D495" s="338"/>
-      <c r="E495" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F495" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G495" s="22"/>
-      <c r="H495" s="19"/>
-    </row>
-    <row r="496" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A496" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B496" s="10"/>
-      <c r="C496" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D496" s="338"/>
-      <c r="E496" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F496" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G496" s="22"/>
-      <c r="H496" s="19"/>
-    </row>
-    <row r="497" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A497" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B497" s="10"/>
+      <c r="D489" s="14"/>
+      <c r="E489" s="174"/>
+      <c r="F489" s="194"/>
+      <c r="G489" s="48"/>
+      <c r="H489" s="48"/>
+    </row>
+    <row r="490" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A490" s="30"/>
+      <c r="B490" s="133"/>
+      <c r="C490" s="10"/>
+      <c r="D490" s="14"/>
+      <c r="E490" s="174"/>
+      <c r="F490" s="194"/>
+      <c r="G490" s="48"/>
+      <c r="H490" s="48"/>
+    </row>
+    <row r="491" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A491" s="30"/>
+      <c r="B491" s="133"/>
+      <c r="C491" s="10"/>
+      <c r="D491" s="14"/>
+      <c r="E491" s="174"/>
+      <c r="F491" s="194"/>
+      <c r="G491" s="48"/>
+      <c r="H491" s="48"/>
+    </row>
+    <row r="492" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A492" s="30"/>
+      <c r="B492" s="133"/>
+      <c r="C492" s="10"/>
+      <c r="D492" s="14"/>
+      <c r="E492" s="174"/>
+      <c r="F492" s="194"/>
+      <c r="G492" s="48"/>
+      <c r="H492" s="48"/>
+    </row>
+    <row r="493" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A493" s="30"/>
+      <c r="B493" s="133"/>
+      <c r="C493" s="10"/>
+      <c r="D493" s="14"/>
+      <c r="E493" s="174"/>
+      <c r="F493" s="194"/>
+      <c r="G493" s="48"/>
+      <c r="H493" s="48"/>
+    </row>
+    <row r="494" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A494" s="30"/>
+      <c r="B494" s="133"/>
+      <c r="C494" s="10"/>
+      <c r="D494" s="14"/>
+      <c r="E494" s="174"/>
+      <c r="F494" s="194"/>
+      <c r="G494" s="48"/>
+      <c r="H494" s="48"/>
+    </row>
+    <row r="495" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A495" s="30"/>
+      <c r="B495" s="133"/>
+      <c r="C495" s="10"/>
+      <c r="D495" s="14"/>
+      <c r="E495" s="174"/>
+      <c r="F495" s="194"/>
+      <c r="G495" s="48"/>
+      <c r="H495" s="48"/>
+    </row>
+    <row r="496" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A496" s="30"/>
+      <c r="B496" s="133"/>
+      <c r="C496" s="10"/>
+      <c r="D496" s="14"/>
+      <c r="E496" s="174"/>
+      <c r="F496" s="194"/>
+      <c r="G496" s="48"/>
+      <c r="H496" s="48"/>
+    </row>
+    <row r="497" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A497" s="30"/>
+      <c r="B497" s="133"/>
       <c r="C497" s="10"/>
-      <c r="D497" s="338"/>
-      <c r="E497" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F497" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G497" s="22"/>
-      <c r="H497" s="19"/>
-    </row>
-    <row r="498" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A498" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B498" s="10"/>
-      <c r="C498" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="D498" s="338"/>
-      <c r="E498" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F498" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="G498" s="22"/>
-      <c r="H498" s="19"/>
-    </row>
-    <row r="499" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A499" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B499" s="26"/>
-      <c r="C499" s="14"/>
-      <c r="D499" s="10"/>
-      <c r="E499" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F499" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H499" s="35"/>
-    </row>
-    <row r="500" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="D497" s="14"/>
+      <c r="E497" s="174"/>
+      <c r="F497" s="194"/>
+      <c r="G497" s="48"/>
+      <c r="H497" s="48"/>
+    </row>
+    <row r="498" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A498" s="30"/>
+      <c r="B498" s="133"/>
+      <c r="C498" s="10"/>
+      <c r="D498" s="14"/>
+      <c r="E498" s="174"/>
+      <c r="F498" s="194"/>
+      <c r="G498" s="48"/>
+      <c r="H498" s="48"/>
+    </row>
+    <row r="499" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A499" s="30"/>
+      <c r="B499" s="133"/>
+      <c r="C499" s="10"/>
+      <c r="D499" s="14"/>
+      <c r="E499" s="174"/>
+      <c r="F499" s="194"/>
+      <c r="G499" s="48"/>
+      <c r="H499" s="48"/>
+    </row>
+    <row r="500" spans="1:8" s="22" customFormat="1" outlineLevel="1">
       <c r="A500" s="30"/>
-      <c r="B500" s="26"/>
-      <c r="C500" s="14"/>
-      <c r="D500" s="10"/>
-      <c r="E500" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F500" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H500" s="35"/>
-    </row>
-    <row r="501" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A501" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B501" s="26"/>
-      <c r="C501" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D501" s="10"/>
-      <c r="E501" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F501" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H501" s="35"/>
-    </row>
-    <row r="502" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A502" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B502" s="26"/>
-      <c r="C502" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="D502" s="10"/>
-      <c r="E502" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F502" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H502" s="35"/>
-    </row>
-    <row r="503" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A503" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B503" s="26"/>
-      <c r="C503" s="10">
-        <v>-100</v>
-      </c>
-      <c r="D503" s="10"/>
-      <c r="E503" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F503" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H503" s="35"/>
-    </row>
-    <row r="504" spans="1:8" s="24" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
-      <c r="A504" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B504" s="26"/>
-      <c r="C504" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D504" s="10"/>
-      <c r="E504" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F504" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H504" s="35"/>
-    </row>
-    <row r="505" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
-      <c r="A505" s="66" t="s">
-        <v>132</v>
-      </c>
-      <c r="B505" s="91"/>
-      <c r="C505" s="92"/>
-      <c r="D505" s="61"/>
-      <c r="E505" s="63"/>
-      <c r="F505" s="93"/>
-      <c r="H505" s="95"/>
-    </row>
-    <row r="506" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A506" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B506" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C506" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D506" s="10"/>
-      <c r="E506" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F506" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H506" s="35"/>
-    </row>
-    <row r="507" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A507" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B507" s="26"/>
-      <c r="C507" s="14"/>
-      <c r="D507" s="10"/>
-      <c r="E507" s="168" t="s">
-        <v>91</v>
-      </c>
-      <c r="F507" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H507" s="35"/>
-    </row>
-    <row r="508" spans="1:8" s="44" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A508" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="B508" s="27"/>
-      <c r="C508" s="41"/>
-      <c r="D508" s="40"/>
-      <c r="E508" s="42"/>
-      <c r="F508" s="43"/>
-      <c r="H508" s="45"/>
-    </row>
-    <row r="509" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A509" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B509" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C509" s="14"/>
-      <c r="D509" s="10"/>
-      <c r="E509" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F509" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H509" s="35"/>
-    </row>
-    <row r="510" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A510" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B510" s="26"/>
-      <c r="C510" s="14"/>
-      <c r="D510" s="10"/>
-      <c r="E510" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F510" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H510" s="35"/>
-    </row>
-    <row r="511" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A511" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B511" s="26"/>
-      <c r="C511" s="14"/>
-      <c r="D511" s="10"/>
-      <c r="E511" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F511" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H511" s="35"/>
-    </row>
-    <row r="512" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A512" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B512" s="26"/>
-      <c r="C512" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D512" s="10"/>
-      <c r="E512" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F512" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H512" s="35"/>
-    </row>
-    <row r="513" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A513" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B513" s="26"/>
-      <c r="C513" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D513" s="10"/>
-      <c r="E513" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F513" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H513" s="35"/>
-    </row>
-    <row r="514" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A514" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B514" s="26"/>
-      <c r="C514" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D514" s="10"/>
-      <c r="E514" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F514" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H514" s="35"/>
-    </row>
-    <row r="515" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A515" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B515" s="26"/>
-      <c r="C515" s="14"/>
-      <c r="D515" s="10"/>
-      <c r="E515" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F515" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H515" s="35"/>
-    </row>
-    <row r="516" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A516" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B516" s="26"/>
-      <c r="C516" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="D516" s="10"/>
-      <c r="E516" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F516" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H516" s="35"/>
-    </row>
-    <row r="517" spans="1:8" s="108" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A517" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="B517" s="107"/>
-      <c r="C517" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="D517" s="102"/>
-      <c r="E517" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F517" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H517" s="109"/>
-    </row>
-    <row r="518" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A518" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B518" s="26"/>
-      <c r="C518" s="10">
-        <v>-100</v>
-      </c>
-      <c r="D518" s="10"/>
-      <c r="E518" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F518" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H518" s="35"/>
-    </row>
-    <row r="519" spans="1:8" s="24" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
-      <c r="A519" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B519" s="26"/>
-      <c r="C519" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D519" s="10"/>
-      <c r="E519" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F519" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H519" s="35"/>
-    </row>
-    <row r="520" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A520" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B520" s="26"/>
-      <c r="C520" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D520" s="10"/>
-      <c r="E520" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F520" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="H520" s="35"/>
-    </row>
-    <row r="521" spans="1:8" s="114" customFormat="1" ht="30" customHeight="1" collapsed="1">
-      <c r="A521" s="158" t="s">
-        <v>9</v>
-      </c>
-      <c r="B521" s="111"/>
-      <c r="C521" s="77"/>
-      <c r="D521" s="77"/>
-      <c r="E521" s="112"/>
-      <c r="F521" s="113"/>
-      <c r="H521" s="115"/>
-    </row>
-    <row r="522" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
-      <c r="A522" s="66" t="s">
-        <v>112</v>
-      </c>
-      <c r="B522" s="91"/>
-      <c r="C522" s="92"/>
-      <c r="D522" s="61"/>
-      <c r="E522" s="63"/>
-      <c r="F522" s="93"/>
-      <c r="H522" s="95"/>
-    </row>
-    <row r="523" spans="1:8">
-      <c r="A523" s="177" t="s">
-        <v>113</v>
-      </c>
-      <c r="E523" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F523" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="524" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
-      <c r="A524" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="B524" s="91"/>
-      <c r="C524" s="92"/>
-      <c r="D524" s="61"/>
-      <c r="E524" s="63"/>
-      <c r="F524" s="93"/>
-      <c r="H524" s="95"/>
-    </row>
-    <row r="525" spans="1:8" s="22" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A525" s="324" t="s">
-        <v>342</v>
-      </c>
-      <c r="C525" s="176"/>
-      <c r="D525" s="10"/>
+      <c r="B500" s="133"/>
+      <c r="C500" s="10"/>
+      <c r="D500" s="14"/>
+      <c r="E500" s="174"/>
+      <c r="F500" s="194"/>
+      <c r="G500" s="48"/>
+      <c r="H500" s="48"/>
+    </row>
+    <row r="501" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A501" s="30"/>
+      <c r="B501" s="133"/>
+      <c r="C501" s="10"/>
+      <c r="D501" s="14"/>
+      <c r="E501" s="174"/>
+      <c r="F501" s="194"/>
+      <c r="G501" s="48"/>
+      <c r="H501" s="48"/>
+    </row>
+    <row r="502" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A502" s="30"/>
+      <c r="B502" s="133"/>
+      <c r="C502" s="10"/>
+      <c r="D502" s="14"/>
+      <c r="E502" s="174"/>
+      <c r="F502" s="194"/>
+      <c r="G502" s="48"/>
+      <c r="H502" s="48"/>
+    </row>
+    <row r="503" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A503" s="30"/>
+      <c r="B503" s="133"/>
+      <c r="C503" s="10"/>
+      <c r="D503" s="14"/>
+      <c r="E503" s="174"/>
+      <c r="F503" s="194"/>
+      <c r="G503" s="48"/>
+      <c r="H503" s="48"/>
+    </row>
+    <row r="504" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A504" s="30"/>
+      <c r="B504" s="133"/>
+      <c r="C504" s="10"/>
+      <c r="D504" s="14"/>
+      <c r="E504" s="174"/>
+      <c r="F504" s="194"/>
+      <c r="G504" s="48"/>
+      <c r="H504" s="48"/>
+    </row>
+    <row r="505" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A505" s="30"/>
+      <c r="B505" s="133"/>
+      <c r="C505" s="10"/>
+      <c r="D505" s="14"/>
+      <c r="E505" s="174"/>
+      <c r="F505" s="194"/>
+      <c r="G505" s="48"/>
+      <c r="H505" s="48"/>
+    </row>
+    <row r="506" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A506" s="30"/>
+      <c r="B506" s="133"/>
+      <c r="C506" s="10"/>
+      <c r="D506" s="14"/>
+      <c r="E506" s="174"/>
+      <c r="F506" s="194"/>
+      <c r="G506" s="48"/>
+      <c r="H506" s="48"/>
+    </row>
+    <row r="507" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A507" s="30"/>
+      <c r="B507" s="133"/>
+      <c r="C507" s="10"/>
+      <c r="D507" s="14"/>
+      <c r="E507" s="174"/>
+      <c r="F507" s="194"/>
+      <c r="G507" s="48"/>
+      <c r="H507" s="48"/>
+    </row>
+    <row r="508" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A508" s="30"/>
+      <c r="B508" s="133"/>
+      <c r="C508" s="10"/>
+      <c r="D508" s="14"/>
+      <c r="E508" s="174"/>
+      <c r="F508" s="194"/>
+      <c r="G508" s="48"/>
+      <c r="H508" s="48"/>
+    </row>
+    <row r="509" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A509" s="30"/>
+      <c r="B509" s="133"/>
+      <c r="C509" s="10"/>
+      <c r="D509" s="14"/>
+      <c r="E509" s="174"/>
+      <c r="F509" s="194"/>
+      <c r="G509" s="48"/>
+      <c r="H509" s="48"/>
+    </row>
+    <row r="510" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A510" s="30"/>
+      <c r="B510" s="133"/>
+      <c r="C510" s="10"/>
+      <c r="D510" s="14"/>
+      <c r="E510" s="174"/>
+      <c r="F510" s="194"/>
+      <c r="G510" s="48"/>
+      <c r="H510" s="48"/>
+    </row>
+    <row r="511" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A511" s="30"/>
+      <c r="B511" s="133"/>
+      <c r="C511" s="10"/>
+      <c r="D511" s="14"/>
+      <c r="E511" s="174"/>
+      <c r="F511" s="194"/>
+      <c r="G511" s="48"/>
+      <c r="H511" s="48"/>
+    </row>
+    <row r="512" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A512" s="30"/>
+      <c r="B512" s="133"/>
+      <c r="C512" s="10"/>
+      <c r="D512" s="14"/>
+      <c r="E512" s="174"/>
+      <c r="F512" s="194"/>
+      <c r="G512" s="48"/>
+      <c r="H512" s="48"/>
+    </row>
+    <row r="513" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A513" s="30"/>
+      <c r="B513" s="133"/>
+      <c r="C513" s="10"/>
+      <c r="D513" s="14"/>
+      <c r="E513" s="174"/>
+      <c r="F513" s="194"/>
+      <c r="G513" s="48"/>
+      <c r="H513" s="48"/>
+    </row>
+    <row r="514" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A514" s="30"/>
+      <c r="B514" s="133"/>
+      <c r="C514" s="10"/>
+      <c r="D514" s="14"/>
+      <c r="E514" s="174"/>
+      <c r="F514" s="194"/>
+      <c r="G514" s="48"/>
+      <c r="H514" s="48"/>
+    </row>
+    <row r="515" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A515" s="30"/>
+      <c r="B515" s="133"/>
+      <c r="C515" s="10"/>
+      <c r="D515" s="14"/>
+      <c r="E515" s="174"/>
+      <c r="F515" s="194"/>
+      <c r="G515" s="48"/>
+      <c r="H515" s="48"/>
+    </row>
+    <row r="516" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A516" s="30"/>
+      <c r="B516" s="133"/>
+      <c r="C516" s="10"/>
+      <c r="D516" s="14"/>
+      <c r="E516" s="174"/>
+      <c r="F516" s="194"/>
+      <c r="G516" s="48"/>
+      <c r="H516" s="48"/>
+    </row>
+    <row r="517" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A517" s="30"/>
+      <c r="B517" s="133"/>
+      <c r="C517" s="10"/>
+      <c r="D517" s="14"/>
+      <c r="E517" s="174"/>
+      <c r="F517" s="194"/>
+      <c r="G517" s="48"/>
+      <c r="H517" s="48"/>
+    </row>
+    <row r="518" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A518" s="30"/>
+      <c r="B518" s="133"/>
+      <c r="C518" s="10"/>
+      <c r="D518" s="14"/>
+      <c r="E518" s="174"/>
+      <c r="F518" s="194"/>
+      <c r="G518" s="48"/>
+      <c r="H518" s="48"/>
+    </row>
+    <row r="519" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A519" s="30"/>
+      <c r="B519" s="133"/>
+      <c r="C519" s="10"/>
+      <c r="D519" s="14"/>
+      <c r="E519" s="174"/>
+      <c r="F519" s="194"/>
+      <c r="G519" s="48"/>
+      <c r="H519" s="48"/>
+    </row>
+    <row r="520" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A520" s="30"/>
+      <c r="B520" s="133"/>
+      <c r="C520" s="10"/>
+      <c r="D520" s="14"/>
+      <c r="E520" s="174"/>
+      <c r="F520" s="194"/>
+      <c r="G520" s="48"/>
+      <c r="H520" s="48"/>
+    </row>
+    <row r="521" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A521" s="30"/>
+      <c r="B521" s="133"/>
+      <c r="C521" s="10"/>
+      <c r="D521" s="14"/>
+      <c r="E521" s="174"/>
+      <c r="F521" s="194"/>
+      <c r="G521" s="48"/>
+      <c r="H521" s="48"/>
+    </row>
+    <row r="522" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A522" s="30"/>
+      <c r="B522" s="133"/>
+      <c r="C522" s="10"/>
+      <c r="D522" s="14"/>
+      <c r="E522" s="174"/>
+      <c r="F522" s="194"/>
+      <c r="G522" s="48"/>
+      <c r="H522" s="48"/>
+    </row>
+    <row r="523" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A523" s="30"/>
+      <c r="B523" s="133"/>
+      <c r="C523" s="10"/>
+      <c r="D523" s="14"/>
+      <c r="E523" s="174"/>
+      <c r="F523" s="194"/>
+      <c r="G523" s="48"/>
+      <c r="H523" s="48"/>
+    </row>
+    <row r="524" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A524" s="30"/>
+      <c r="B524" s="133"/>
+      <c r="C524" s="10"/>
+      <c r="D524" s="14"/>
+      <c r="E524" s="174"/>
+      <c r="F524" s="194"/>
+      <c r="G524" s="48"/>
+      <c r="H524" s="48"/>
+    </row>
+    <row r="525" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A525" s="30"/>
+      <c r="B525" s="133"/>
+      <c r="C525" s="10"/>
+      <c r="D525" s="14"/>
+      <c r="E525" s="174"/>
+      <c r="F525" s="194"/>
       <c r="G525" s="48"/>
       <c r="H525" s="48"/>
     </row>
-    <row r="526" spans="1:8" s="22" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A526" s="102" t="s">
-        <v>334</v>
-      </c>
-      <c r="B526" s="247"/>
-      <c r="C526" s="181"/>
-      <c r="D526" s="10"/>
-      <c r="E526" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F526" s="174" t="s">
-        <v>103</v>
-      </c>
+    <row r="526" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A526" s="30"/>
+      <c r="B526" s="133"/>
+      <c r="C526" s="10"/>
+      <c r="D526" s="14"/>
+      <c r="E526" s="174"/>
+      <c r="F526" s="194"/>
       <c r="G526" s="48"/>
       <c r="H526" s="48"/>
     </row>
-    <row r="527" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
-      <c r="A527" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="B527" s="247"/>
-      <c r="C527" s="181"/>
-      <c r="D527" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="E527" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F527" s="174" t="s">
-        <v>103</v>
-      </c>
+    <row r="527" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A527" s="30"/>
+      <c r="B527" s="133"/>
+      <c r="C527" s="10"/>
+      <c r="D527" s="14"/>
+      <c r="E527" s="174"/>
+      <c r="F527" s="194"/>
       <c r="G527" s="48"/>
       <c r="H527" s="48"/>
     </row>
-    <row r="528" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A528" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B528" s="247"/>
-      <c r="C528" s="181"/>
-      <c r="D528" s="10"/>
-      <c r="E528" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F528" s="174" t="s">
-        <v>103</v>
-      </c>
+    <row r="528" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A528" s="30"/>
+      <c r="B528" s="133"/>
+      <c r="C528" s="10"/>
+      <c r="D528" s="14"/>
+      <c r="E528" s="174"/>
+      <c r="F528" s="194"/>
       <c r="G528" s="48"/>
       <c r="H528" s="48"/>
     </row>
-    <row r="529" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A529" s="10" t="s">
-        <v>337</v>
-      </c>
+    <row r="529" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A529" s="30"/>
       <c r="B529" s="133"/>
-      <c r="C529" s="176"/>
-      <c r="D529" s="187"/>
-      <c r="E529" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F529" s="174" t="s">
-        <v>103</v>
-      </c>
+      <c r="C529" s="10"/>
+      <c r="D529" s="14"/>
+      <c r="E529" s="174"/>
+      <c r="F529" s="194"/>
       <c r="G529" s="48"/>
       <c r="H529" s="48"/>
     </row>
-    <row r="530" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A530" s="30" t="s">
-        <v>338</v>
-      </c>
-      <c r="B530" s="26"/>
-      <c r="C530" s="176"/>
-      <c r="D530" s="187"/>
-      <c r="E530" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F530" s="174" t="s">
-        <v>103</v>
-      </c>
+    <row r="530" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A530" s="30"/>
+      <c r="B530" s="133"/>
+      <c r="C530" s="10"/>
+      <c r="D530" s="14"/>
+      <c r="E530" s="174"/>
+      <c r="F530" s="194"/>
       <c r="G530" s="48"/>
       <c r="H530" s="48"/>
     </row>
-    <row r="531" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A531" s="30" t="s">
-        <v>339</v>
-      </c>
-      <c r="B531" s="26"/>
-      <c r="C531" s="176"/>
-      <c r="D531" s="187"/>
-      <c r="E531" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F531" s="194" t="s">
-        <v>93</v>
-      </c>
+    <row r="531" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A531" s="30"/>
+      <c r="B531" s="133"/>
+      <c r="C531" s="10"/>
+      <c r="D531" s="14"/>
+      <c r="E531" s="174"/>
+      <c r="F531" s="194"/>
       <c r="G531" s="48"/>
       <c r="H531" s="48"/>
     </row>
-    <row r="532" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A532" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="B532" s="323"/>
-      <c r="C532" s="181"/>
-      <c r="D532" s="187"/>
-      <c r="E532" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F532" s="194" t="s">
-        <v>93</v>
-      </c>
+    <row r="532" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A532" s="30"/>
+      <c r="B532" s="133"/>
+      <c r="C532" s="10"/>
+      <c r="D532" s="14"/>
+      <c r="E532" s="174"/>
+      <c r="F532" s="194"/>
       <c r="G532" s="48"/>
       <c r="H532" s="48"/>
     </row>
-    <row r="533" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A533" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="B533" s="26"/>
-      <c r="C533" s="176"/>
-      <c r="D533" s="187"/>
-      <c r="E533" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F533" s="194" t="s">
-        <v>93</v>
-      </c>
+    <row r="533" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A533" s="30"/>
+      <c r="B533" s="133"/>
+      <c r="C533" s="10"/>
+      <c r="D533" s="14"/>
+      <c r="E533" s="174"/>
+      <c r="F533" s="194"/>
       <c r="G533" s="48"/>
       <c r="H533" s="48"/>
     </row>
-    <row r="534" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A534" s="221" t="s">
-        <v>351</v>
-      </c>
+    <row r="534" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A534" s="30"/>
       <c r="B534" s="133"/>
-      <c r="C534" s="181"/>
-      <c r="D534" s="187"/>
-      <c r="E534" s="175"/>
-      <c r="F534" s="319"/>
+      <c r="C534" s="10"/>
+      <c r="D534" s="14"/>
+      <c r="E534" s="174"/>
+      <c r="F534" s="194"/>
       <c r="G534" s="48"/>
       <c r="H534" s="48"/>
     </row>
-    <row r="535" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A535" s="102" t="s">
-        <v>343</v>
-      </c>
+    <row r="535" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A535" s="30"/>
       <c r="B535" s="133"/>
-      <c r="C535" s="181"/>
-      <c r="D535" s="187"/>
-      <c r="E535" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F535" s="174" t="s">
-        <v>103</v>
-      </c>
+      <c r="C535" s="10"/>
+      <c r="D535" s="14"/>
+      <c r="E535" s="174"/>
+      <c r="F535" s="194"/>
       <c r="G535" s="48"/>
       <c r="H535" s="48"/>
     </row>
-    <row r="536" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A536" s="10" t="s">
-        <v>344</v>
-      </c>
+    <row r="536" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A536" s="30"/>
       <c r="B536" s="133"/>
-      <c r="C536" s="181"/>
-      <c r="D536" s="187"/>
-      <c r="E536" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F536" s="174" t="s">
-        <v>103</v>
-      </c>
+      <c r="C536" s="10"/>
+      <c r="D536" s="14"/>
+      <c r="E536" s="174"/>
+      <c r="F536" s="194"/>
       <c r="G536" s="48"/>
       <c r="H536" s="48"/>
     </row>
-    <row r="537" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A537" s="10" t="s">
-        <v>345</v>
-      </c>
+    <row r="537" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A537" s="30"/>
       <c r="B537" s="133"/>
-      <c r="C537" s="181"/>
-      <c r="D537" s="187"/>
-      <c r="E537" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F537" s="174" t="s">
-        <v>103</v>
-      </c>
+      <c r="C537" s="10"/>
+      <c r="D537" s="14"/>
+      <c r="E537" s="174"/>
+      <c r="F537" s="194"/>
       <c r="G537" s="48"/>
       <c r="H537" s="48"/>
     </row>
-    <row r="538" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A538" s="10" t="s">
-        <v>346</v>
-      </c>
+    <row r="538" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A538" s="30"/>
       <c r="B538" s="133"/>
-      <c r="C538" s="181"/>
-      <c r="D538" s="187"/>
-      <c r="E538" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F538" s="174" t="s">
-        <v>103</v>
-      </c>
+      <c r="C538" s="10"/>
+      <c r="D538" s="14"/>
+      <c r="E538" s="174"/>
+      <c r="F538" s="194"/>
       <c r="G538" s="48"/>
       <c r="H538" s="48"/>
     </row>
-    <row r="539" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A539" s="30" t="s">
-        <v>347</v>
-      </c>
+    <row r="539" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A539" s="30"/>
       <c r="B539" s="133"/>
-      <c r="C539" s="181"/>
-      <c r="D539" s="187"/>
-      <c r="E539" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="F539" s="174" t="s">
-        <v>103</v>
-      </c>
+      <c r="C539" s="10"/>
+      <c r="D539" s="14"/>
+      <c r="E539" s="174"/>
+      <c r="F539" s="194"/>
       <c r="G539" s="48"/>
       <c r="H539" s="48"/>
     </row>
-    <row r="540" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A540" s="30" t="s">
-        <v>348</v>
-      </c>
+    <row r="540" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A540" s="30"/>
       <c r="B540" s="133"/>
-      <c r="C540" s="181"/>
-      <c r="D540" s="187"/>
-      <c r="E540" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F540" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="C540" s="10"/>
+      <c r="D540" s="14"/>
+      <c r="E540" s="174"/>
+      <c r="F540" s="194"/>
       <c r="G540" s="48"/>
       <c r="H540" s="48"/>
     </row>
-    <row r="541" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A541" s="30" t="s">
-        <v>349</v>
-      </c>
+    <row r="541" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A541" s="30"/>
       <c r="B541" s="133"/>
-      <c r="C541" s="187"/>
-      <c r="E541" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F541" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="C541" s="10"/>
+      <c r="D541" s="14"/>
+      <c r="E541" s="174"/>
+      <c r="F541" s="194"/>
       <c r="G541" s="48"/>
       <c r="H541" s="48"/>
     </row>
-    <row r="542" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A542" s="30" t="s">
-        <v>350</v>
-      </c>
+    <row r="542" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A542" s="30"/>
       <c r="B542" s="133"/>
-      <c r="C542" s="176"/>
+      <c r="C542" s="10"/>
       <c r="D542" s="14"/>
-      <c r="E542" s="175" t="s">
-        <v>91</v>
-      </c>
-      <c r="F542" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="E542" s="174"/>
+      <c r="F542" s="194"/>
       <c r="G542" s="48"/>
       <c r="H542" s="48"/>
     </row>
-    <row r="543" spans="1:8" s="125" customFormat="1" hidden="1" outlineLevel="1">
-      <c r="A543" s="121" t="s">
-        <v>256</v>
-      </c>
-      <c r="B543" s="122"/>
-      <c r="C543" s="123"/>
-      <c r="D543" s="124"/>
-      <c r="E543" s="38"/>
-      <c r="F543" s="39"/>
-      <c r="G543" s="39"/>
-      <c r="H543" s="39"/>
-    </row>
-    <row r="544" spans="1:8" s="218" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A544" s="221" t="s">
-        <v>370</v>
-      </c>
-      <c r="B544" s="213"/>
-      <c r="C544" s="325"/>
-      <c r="D544" s="217"/>
-      <c r="E544" s="47"/>
-      <c r="F544" s="48"/>
+    <row r="543" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A543" s="30"/>
+      <c r="B543" s="133"/>
+      <c r="C543" s="10"/>
+      <c r="D543" s="14"/>
+      <c r="E543" s="174"/>
+      <c r="F543" s="194"/>
+      <c r="G543" s="48"/>
+      <c r="H543" s="48"/>
+    </row>
+    <row r="544" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A544" s="30"/>
+      <c r="B544" s="133"/>
+      <c r="C544" s="10"/>
+      <c r="D544" s="14"/>
+      <c r="E544" s="174"/>
+      <c r="F544" s="194"/>
       <c r="G544" s="48"/>
       <c r="H544" s="48"/>
     </row>
-    <row r="545" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A545" s="10" t="s">
-        <v>257</v>
-      </c>
+    <row r="545" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A545" s="30"/>
       <c r="B545" s="133"/>
-      <c r="C545" s="176"/>
+      <c r="C545" s="10"/>
       <c r="D545" s="14"/>
-      <c r="E545" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F545" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="E545" s="174"/>
+      <c r="F545" s="194"/>
       <c r="G545" s="48"/>
       <c r="H545" s="48"/>
     </row>
-    <row r="546" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A546" s="10" t="s">
-        <v>258</v>
-      </c>
+    <row r="546" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A546" s="30"/>
       <c r="B546" s="133"/>
-      <c r="C546" s="176"/>
+      <c r="C546" s="10"/>
       <c r="D546" s="14"/>
-      <c r="E546" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F546" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="E546" s="174"/>
+      <c r="F546" s="194"/>
       <c r="G546" s="48"/>
       <c r="H546" s="48"/>
     </row>
-    <row r="547" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A547" s="102" t="s">
-        <v>260</v>
-      </c>
+    <row r="547" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A547" s="30"/>
       <c r="B547" s="133"/>
-      <c r="C547" s="103" t="s">
-        <v>259</v>
-      </c>
-      <c r="D547" s="210"/>
-      <c r="E547" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F547" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="C547" s="10"/>
+      <c r="D547" s="14"/>
+      <c r="E547" s="174"/>
+      <c r="F547" s="194"/>
       <c r="G547" s="48"/>
       <c r="H547" s="48"/>
     </row>
-    <row r="548" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A548" s="10" t="s">
-        <v>263</v>
-      </c>
+    <row r="548" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A548" s="30"/>
       <c r="B548" s="133"/>
-      <c r="C548" s="98"/>
-      <c r="D548" s="211"/>
-      <c r="E548" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F548" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="C548" s="10"/>
+      <c r="D548" s="14"/>
+      <c r="E548" s="174"/>
+      <c r="F548" s="194"/>
       <c r="G548" s="48"/>
       <c r="H548" s="48"/>
     </row>
-    <row r="549" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A549" s="10" t="s">
-        <v>262</v>
-      </c>
+    <row r="549" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A549" s="30"/>
       <c r="B549" s="133"/>
-      <c r="C549" s="98"/>
-      <c r="D549" s="293"/>
-      <c r="E549" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F549" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="C549" s="10"/>
+      <c r="D549" s="14"/>
+      <c r="E549" s="174"/>
+      <c r="F549" s="194"/>
       <c r="G549" s="48"/>
       <c r="H549" s="48"/>
     </row>
-    <row r="550" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A550" s="10" t="s">
-        <v>261</v>
-      </c>
+    <row r="550" spans="1:8" s="22" customFormat="1" outlineLevel="1">
+      <c r="A550" s="30"/>
       <c r="B550" s="133"/>
-      <c r="C550" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D550" s="211"/>
-      <c r="E550" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F550" s="194" t="s">
-        <v>93</v>
-      </c>
+      <c r="C550" s="10"/>
+      <c r="D550" s="14"/>
+      <c r="E550" s="174"/>
+      <c r="F550" s="194"/>
       <c r="G550" s="48"/>
       <c r="H550" s="48"/>
     </row>
-    <row r="551" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A551" s="10" t="s">
+    <row r="551" spans="1:8" s="83" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A551" s="157" t="s">
+        <v>8</v>
+      </c>
+      <c r="B551" s="78"/>
+      <c r="C551" s="79"/>
+      <c r="D551" s="80"/>
+      <c r="E551" s="81"/>
+      <c r="F551" s="82"/>
+      <c r="H551" s="84"/>
+    </row>
+    <row r="552" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
+      <c r="A552" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="B552" s="91"/>
+      <c r="C552" s="92"/>
+      <c r="D552" s="61"/>
+      <c r="E552" s="63"/>
+      <c r="F552" s="93"/>
+      <c r="H552" s="95"/>
+    </row>
+    <row r="553" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A553" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B553" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C553" s="14"/>
+      <c r="D553" s="206"/>
+      <c r="E553" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F553" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H553" s="35"/>
+    </row>
+    <row r="554" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A554" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B554" s="26"/>
+      <c r="C554" s="14"/>
+      <c r="D554" s="207"/>
+      <c r="E554" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F554" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H554" s="35"/>
+    </row>
+    <row r="555" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A555" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B555" s="26"/>
+      <c r="C555" s="14"/>
+      <c r="D555" s="207"/>
+      <c r="E555" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F555" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H555" s="35"/>
+    </row>
+    <row r="556" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A556" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B556" s="26"/>
+      <c r="C556" s="14"/>
+      <c r="D556" s="207"/>
+      <c r="E556" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F556" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H556" s="35"/>
+    </row>
+    <row r="557" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A557" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B557" s="26"/>
+      <c r="C557" s="14"/>
+      <c r="D557" s="208"/>
+      <c r="E557" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F557" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H557" s="35"/>
+    </row>
+    <row r="558" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A558" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B558" s="26"/>
+      <c r="C558" s="14"/>
+      <c r="D558" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E558" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F558" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H558" s="35"/>
+    </row>
+    <row r="559" spans="1:8" s="89" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="A559" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="B559" s="85"/>
+      <c r="C559" s="86"/>
+      <c r="D559" s="110"/>
+      <c r="E559" s="87"/>
+      <c r="F559" s="88"/>
+      <c r="H559" s="90"/>
+    </row>
+    <row r="560" spans="1:8" hidden="1" outlineLevel="2">
+      <c r="A560" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D560" s="337" t="s">
+        <v>32</v>
+      </c>
+      <c r="E560" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F560" s="34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A561" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B561" s="10"/>
+      <c r="C561" s="10"/>
+      <c r="D561" s="338"/>
+      <c r="E561" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F561" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G561" s="22"/>
+      <c r="H561" s="19"/>
+    </row>
+    <row r="562" spans="1:8" s="15" customFormat="1" ht="57.6" hidden="1" outlineLevel="2">
+      <c r="A562" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="B562" s="10"/>
+      <c r="C562" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D562" s="338"/>
+      <c r="E562" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F562" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G562" s="22"/>
+      <c r="H562" s="19"/>
+    </row>
+    <row r="563" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A563" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B563" s="10"/>
+      <c r="C563" s="98">
+        <v>2147483648</v>
+      </c>
+      <c r="D563" s="338"/>
+      <c r="E563" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F563" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G563" s="22"/>
+      <c r="H563" s="19"/>
+    </row>
+    <row r="564" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A564" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B564" s="10"/>
+      <c r="C564" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D564" s="338"/>
+      <c r="E564" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F564" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G564" s="22"/>
+      <c r="H564" s="19"/>
+    </row>
+    <row r="565" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A565" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B565" s="10"/>
+      <c r="C565" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D565" s="338"/>
+      <c r="E565" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F565" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G565" s="22"/>
+      <c r="H565" s="19"/>
+    </row>
+    <row r="566" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A566" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B566" s="10"/>
+      <c r="C566" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D566" s="338"/>
+      <c r="E566" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F566" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G566" s="22"/>
+      <c r="H566" s="19"/>
+    </row>
+    <row r="567" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A567" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B567" s="10"/>
+      <c r="C567" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D567" s="338"/>
+      <c r="E567" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F567" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G567" s="22"/>
+      <c r="H567" s="19"/>
+    </row>
+    <row r="568" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A568" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B568" s="10"/>
+      <c r="C568" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D568" s="338"/>
+      <c r="E568" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F568" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G568" s="22"/>
+      <c r="H568" s="19"/>
+    </row>
+    <row r="569" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A569" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B569" s="10"/>
+      <c r="C569" s="10"/>
+      <c r="D569" s="338"/>
+      <c r="E569" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F569" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G569" s="22"/>
+      <c r="H569" s="19"/>
+    </row>
+    <row r="570" spans="1:8" s="15" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A570" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B570" s="10"/>
+      <c r="C570" s="101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D570" s="338"/>
+      <c r="E570" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F570" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G570" s="22"/>
+      <c r="H570" s="19"/>
+    </row>
+    <row r="571" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A571" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B571" s="26"/>
+      <c r="C571" s="14"/>
+      <c r="D571" s="10"/>
+      <c r="E571" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F571" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H571" s="35"/>
+    </row>
+    <row r="572" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A572" s="30"/>
+      <c r="B572" s="26"/>
+      <c r="C572" s="14"/>
+      <c r="D572" s="10"/>
+      <c r="E572" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F572" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H572" s="35"/>
+    </row>
+    <row r="573" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A573" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B573" s="26"/>
+      <c r="C573" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D573" s="10"/>
+      <c r="E573" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F573" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H573" s="35"/>
+    </row>
+    <row r="574" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A574" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B574" s="26"/>
+      <c r="C574" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D574" s="10"/>
+      <c r="E574" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F574" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H574" s="35"/>
+    </row>
+    <row r="575" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A575" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B575" s="26"/>
+      <c r="C575" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D575" s="10"/>
+      <c r="E575" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F575" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H575" s="35"/>
+    </row>
+    <row r="576" spans="1:8" s="24" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
+      <c r="A576" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B576" s="26"/>
+      <c r="C576" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D576" s="10"/>
+      <c r="E576" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F576" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H576" s="35"/>
+    </row>
+    <row r="577" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
+      <c r="A577" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="B577" s="91"/>
+      <c r="C577" s="92"/>
+      <c r="D577" s="61"/>
+      <c r="E577" s="63"/>
+      <c r="F577" s="93"/>
+      <c r="H577" s="95"/>
+    </row>
+    <row r="578" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A578" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B578" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C578" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D578" s="10"/>
+      <c r="E578" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F578" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H578" s="35"/>
+    </row>
+    <row r="579" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A579" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B579" s="26"/>
+      <c r="C579" s="14"/>
+      <c r="D579" s="10"/>
+      <c r="E579" s="168" t="s">
+        <v>91</v>
+      </c>
+      <c r="F579" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H579" s="35"/>
+    </row>
+    <row r="580" spans="1:8" s="44" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A580" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B580" s="27"/>
+      <c r="C580" s="41"/>
+      <c r="D580" s="40"/>
+      <c r="E580" s="42"/>
+      <c r="F580" s="43"/>
+      <c r="H580" s="45"/>
+    </row>
+    <row r="581" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A581" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B581" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C581" s="14"/>
+      <c r="D581" s="10"/>
+      <c r="E581" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F581" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H581" s="35"/>
+    </row>
+    <row r="582" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A582" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B582" s="26"/>
+      <c r="C582" s="14"/>
+      <c r="D582" s="10"/>
+      <c r="E582" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F582" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H582" s="35"/>
+    </row>
+    <row r="583" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A583" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B583" s="26"/>
+      <c r="C583" s="14"/>
+      <c r="D583" s="10"/>
+      <c r="E583" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F583" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H583" s="35"/>
+    </row>
+    <row r="584" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A584" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B584" s="26"/>
+      <c r="C584" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D584" s="10"/>
+      <c r="E584" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F584" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H584" s="35"/>
+    </row>
+    <row r="585" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A585" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B585" s="26"/>
+      <c r="C585" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D585" s="10"/>
+      <c r="E585" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F585" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H585" s="35"/>
+    </row>
+    <row r="586" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A586" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B586" s="26"/>
+      <c r="C586" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D586" s="10"/>
+      <c r="E586" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F586" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H586" s="35"/>
+    </row>
+    <row r="587" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A587" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B587" s="26"/>
+      <c r="C587" s="14"/>
+      <c r="D587" s="10"/>
+      <c r="E587" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F587" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H587" s="35"/>
+    </row>
+    <row r="588" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A588" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B588" s="26"/>
+      <c r="C588" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="D588" s="10"/>
+      <c r="E588" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F588" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H588" s="35"/>
+    </row>
+    <row r="589" spans="1:8" s="108" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A589" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="B589" s="107"/>
+      <c r="C589" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="D589" s="102"/>
+      <c r="E589" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F589" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H589" s="109"/>
+    </row>
+    <row r="590" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A590" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B590" s="26"/>
+      <c r="C590" s="10">
+        <v>-100</v>
+      </c>
+      <c r="D590" s="10"/>
+      <c r="E590" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F590" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H590" s="35"/>
+    </row>
+    <row r="591" spans="1:8" s="24" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
+      <c r="A591" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B591" s="26"/>
+      <c r="C591" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D591" s="10"/>
+      <c r="E591" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F591" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H591" s="35"/>
+    </row>
+    <row r="592" spans="1:8" s="24" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A592" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B592" s="26"/>
+      <c r="C592" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D592" s="10"/>
+      <c r="E592" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F592" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="H592" s="35"/>
+    </row>
+    <row r="593" spans="1:8" s="114" customFormat="1" ht="30" customHeight="1" collapsed="1">
+      <c r="A593" s="158" t="s">
+        <v>9</v>
+      </c>
+      <c r="B593" s="111"/>
+      <c r="C593" s="77"/>
+      <c r="D593" s="77"/>
+      <c r="E593" s="112"/>
+      <c r="F593" s="113"/>
+      <c r="H593" s="115"/>
+    </row>
+    <row r="594" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
+      <c r="A594" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="B594" s="91"/>
+      <c r="C594" s="92"/>
+      <c r="D594" s="61"/>
+      <c r="E594" s="63"/>
+      <c r="F594" s="93"/>
+      <c r="H594" s="95"/>
+    </row>
+    <row r="595" spans="1:8">
+      <c r="A595" s="177" t="s">
+        <v>113</v>
+      </c>
+      <c r="E595" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="F595" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" s="94" customFormat="1" ht="28.8" collapsed="1">
+      <c r="A596" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="B596" s="91"/>
+      <c r="C596" s="92"/>
+      <c r="D596" s="61"/>
+      <c r="E596" s="63"/>
+      <c r="F596" s="93"/>
+      <c r="H596" s="95"/>
+    </row>
+    <row r="597" spans="1:8" s="22" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A597" s="324" t="s">
+        <v>342</v>
+      </c>
+      <c r="C597" s="176"/>
+      <c r="D597" s="10"/>
+      <c r="G597" s="48"/>
+      <c r="H597" s="48"/>
+    </row>
+    <row r="598" spans="1:8" s="22" customFormat="1" ht="16.2" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="A598" s="102" t="s">
+        <v>334</v>
+      </c>
+      <c r="B598" s="247"/>
+      <c r="C598" s="181"/>
+      <c r="D598" s="10"/>
+      <c r="E598" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F598" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G598" s="48"/>
+      <c r="H598" s="48"/>
+    </row>
+    <row r="599" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="1">
+      <c r="A599" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="B599" s="247"/>
+      <c r="C599" s="181"/>
+      <c r="D599" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="E599" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F599" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G599" s="48"/>
+      <c r="H599" s="48"/>
+    </row>
+    <row r="600" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A600" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B600" s="247"/>
+      <c r="C600" s="181"/>
+      <c r="D600" s="10"/>
+      <c r="E600" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F600" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G600" s="48"/>
+      <c r="H600" s="48"/>
+    </row>
+    <row r="601" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A601" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B601" s="133"/>
+      <c r="C601" s="176"/>
+      <c r="D601" s="187"/>
+      <c r="E601" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F601" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G601" s="48"/>
+      <c r="H601" s="48"/>
+    </row>
+    <row r="602" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A602" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B602" s="26"/>
+      <c r="C602" s="176"/>
+      <c r="D602" s="187"/>
+      <c r="E602" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F602" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G602" s="48"/>
+      <c r="H602" s="48"/>
+    </row>
+    <row r="603" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A603" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B603" s="26"/>
+      <c r="C603" s="176"/>
+      <c r="D603" s="187"/>
+      <c r="E603" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="F603" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G603" s="48"/>
+      <c r="H603" s="48"/>
+    </row>
+    <row r="604" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A604" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B604" s="323"/>
+      <c r="C604" s="181"/>
+      <c r="D604" s="187"/>
+      <c r="E604" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="F604" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G604" s="48"/>
+      <c r="H604" s="48"/>
+    </row>
+    <row r="605" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A605" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="B605" s="26"/>
+      <c r="C605" s="176"/>
+      <c r="D605" s="187"/>
+      <c r="E605" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="F605" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G605" s="48"/>
+      <c r="H605" s="48"/>
+    </row>
+    <row r="606" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A606" s="221" t="s">
+        <v>351</v>
+      </c>
+      <c r="B606" s="133"/>
+      <c r="C606" s="181"/>
+      <c r="D606" s="187"/>
+      <c r="E606" s="175"/>
+      <c r="F606" s="319"/>
+      <c r="G606" s="48"/>
+      <c r="H606" s="48"/>
+    </row>
+    <row r="607" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A607" s="102" t="s">
+        <v>343</v>
+      </c>
+      <c r="B607" s="133"/>
+      <c r="C607" s="181"/>
+      <c r="D607" s="187"/>
+      <c r="E607" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F607" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G607" s="48"/>
+      <c r="H607" s="48"/>
+    </row>
+    <row r="608" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A608" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B608" s="133"/>
+      <c r="C608" s="181"/>
+      <c r="D608" s="187"/>
+      <c r="E608" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F608" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G608" s="48"/>
+      <c r="H608" s="48"/>
+    </row>
+    <row r="609" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A609" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B609" s="133"/>
+      <c r="C609" s="181"/>
+      <c r="D609" s="187"/>
+      <c r="E609" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F609" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G609" s="48"/>
+      <c r="H609" s="48"/>
+    </row>
+    <row r="610" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A610" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B610" s="133"/>
+      <c r="C610" s="181"/>
+      <c r="D610" s="187"/>
+      <c r="E610" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F610" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G610" s="48"/>
+      <c r="H610" s="48"/>
+    </row>
+    <row r="611" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A611" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="B611" s="133"/>
+      <c r="C611" s="181"/>
+      <c r="D611" s="187"/>
+      <c r="E611" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="F611" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G611" s="48"/>
+      <c r="H611" s="48"/>
+    </row>
+    <row r="612" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A612" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="B612" s="133"/>
+      <c r="C612" s="181"/>
+      <c r="D612" s="187"/>
+      <c r="E612" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="F612" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G612" s="48"/>
+      <c r="H612" s="48"/>
+    </row>
+    <row r="613" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A613" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="B613" s="133"/>
+      <c r="C613" s="187"/>
+      <c r="E613" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="F613" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G613" s="48"/>
+      <c r="H613" s="48"/>
+    </row>
+    <row r="614" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A614" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="B614" s="133"/>
+      <c r="C614" s="176"/>
+      <c r="D614" s="14"/>
+      <c r="E614" s="175" t="s">
+        <v>91</v>
+      </c>
+      <c r="F614" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G614" s="48"/>
+      <c r="H614" s="48"/>
+    </row>
+    <row r="615" spans="1:8" s="125" customFormat="1" hidden="1" outlineLevel="1">
+      <c r="A615" s="121" t="s">
+        <v>256</v>
+      </c>
+      <c r="B615" s="122"/>
+      <c r="C615" s="123"/>
+      <c r="D615" s="124"/>
+      <c r="E615" s="38"/>
+      <c r="F615" s="39"/>
+      <c r="G615" s="39"/>
+      <c r="H615" s="39"/>
+    </row>
+    <row r="616" spans="1:8" s="218" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="A616" s="221" t="s">
+        <v>370</v>
+      </c>
+      <c r="B616" s="213"/>
+      <c r="C616" s="325"/>
+      <c r="D616" s="217"/>
+      <c r="E616" s="47"/>
+      <c r="F616" s="48"/>
+      <c r="G616" s="48"/>
+      <c r="H616" s="48"/>
+    </row>
+    <row r="617" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A617" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="B617" s="133"/>
+      <c r="C617" s="176"/>
+      <c r="D617" s="14"/>
+      <c r="E617" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F617" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G617" s="48"/>
+      <c r="H617" s="48"/>
+    </row>
+    <row r="618" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A618" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="B618" s="133"/>
+      <c r="C618" s="176"/>
+      <c r="D618" s="14"/>
+      <c r="E618" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F618" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G618" s="48"/>
+      <c r="H618" s="48"/>
+    </row>
+    <row r="619" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A619" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="B619" s="133"/>
+      <c r="C619" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="D619" s="210"/>
+      <c r="E619" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F619" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G619" s="48"/>
+      <c r="H619" s="48"/>
+    </row>
+    <row r="620" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A620" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="B620" s="133"/>
+      <c r="C620" s="98"/>
+      <c r="D620" s="211"/>
+      <c r="E620" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F620" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G620" s="48"/>
+      <c r="H620" s="48"/>
+    </row>
+    <row r="621" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A621" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B621" s="133"/>
+      <c r="C621" s="98"/>
+      <c r="D621" s="293"/>
+      <c r="E621" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F621" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G621" s="48"/>
+      <c r="H621" s="48"/>
+    </row>
+    <row r="622" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A622" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B622" s="133"/>
+      <c r="C622" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D622" s="211"/>
+      <c r="E622" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F622" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G622" s="48"/>
+      <c r="H622" s="48"/>
+    </row>
+    <row r="623" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A623" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="B551" s="133"/>
-      <c r="C551" s="10" t="s">
+      <c r="B623" s="133"/>
+      <c r="C623" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D551" s="211"/>
-      <c r="E551" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F551" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G551" s="48"/>
-      <c r="H551" s="48"/>
-    </row>
-    <row r="552" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A552" s="10" t="s">
+      <c r="D623" s="211"/>
+      <c r="E623" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F623" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G623" s="48"/>
+      <c r="H623" s="48"/>
+    </row>
+    <row r="624" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A624" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B552" s="133"/>
-      <c r="C552" s="101" t="s">
+      <c r="B624" s="133"/>
+      <c r="C624" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D552" s="212"/>
-      <c r="E552" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F552" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G552" s="48"/>
-      <c r="H552" s="48"/>
-    </row>
-    <row r="553" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A553" s="105" t="s">
+      <c r="D624" s="212"/>
+      <c r="E624" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F624" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G624" s="48"/>
+      <c r="H624" s="48"/>
+    </row>
+    <row r="625" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A625" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="B553" s="133"/>
-      <c r="C553" s="107" t="s">
+      <c r="B625" s="133"/>
+      <c r="C625" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="D553" s="14"/>
-      <c r="E553" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F553" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G553" s="48"/>
-      <c r="H553" s="48"/>
-    </row>
-    <row r="554" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A554" s="30" t="s">
+      <c r="D625" s="14"/>
+      <c r="E625" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F625" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G625" s="48"/>
+      <c r="H625" s="48"/>
+    </row>
+    <row r="626" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A626" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="B554" s="133"/>
-      <c r="C554" s="10">
+      <c r="B626" s="133"/>
+      <c r="C626" s="10">
         <v>-100</v>
       </c>
-      <c r="D554" s="14"/>
-      <c r="E554" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F554" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G554" s="48"/>
-      <c r="H554" s="48"/>
-    </row>
-    <row r="555" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
-      <c r="A555" s="30" t="s">
+      <c r="D626" s="14"/>
+      <c r="E626" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F626" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G626" s="48"/>
+      <c r="H626" s="48"/>
+    </row>
+    <row r="627" spans="1:8" s="22" customFormat="1" ht="28.8" hidden="1" outlineLevel="2">
+      <c r="A627" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B555" s="133"/>
-      <c r="C555" s="10" t="s">
+      <c r="B627" s="133"/>
+      <c r="C627" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D555" s="14"/>
-      <c r="E555" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F555" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G555" s="48"/>
-      <c r="H555" s="48"/>
-    </row>
-    <row r="556" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A556" s="324" t="s">
+      <c r="D627" s="14"/>
+      <c r="E627" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F627" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G627" s="48"/>
+      <c r="H627" s="48"/>
+    </row>
+    <row r="628" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="A628" s="324" t="s">
         <v>362</v>
       </c>
-      <c r="B556" s="133"/>
-      <c r="C556" s="10"/>
-      <c r="D556" s="14"/>
-      <c r="E556" s="199"/>
-      <c r="F556" s="194"/>
-      <c r="G556" s="48"/>
-      <c r="H556" s="48"/>
-    </row>
-    <row r="557" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A557" s="328" t="s">
+      <c r="B628" s="133"/>
+      <c r="C628" s="10"/>
+      <c r="D628" s="14"/>
+      <c r="E628" s="199"/>
+      <c r="F628" s="194"/>
+      <c r="G628" s="48"/>
+      <c r="H628" s="48"/>
+    </row>
+    <row r="629" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A629" s="328" t="s">
         <v>372</v>
       </c>
-      <c r="B557" s="133"/>
-      <c r="C557" s="10"/>
-      <c r="D557" s="14"/>
-      <c r="E557" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F557" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G557" s="48"/>
-      <c r="H557" s="48"/>
-    </row>
-    <row r="558" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A558" s="328" t="s">
+      <c r="B629" s="133"/>
+      <c r="C629" s="10"/>
+      <c r="D629" s="14"/>
+      <c r="E629" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F629" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G629" s="48"/>
+      <c r="H629" s="48"/>
+    </row>
+    <row r="630" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A630" s="328" t="s">
         <v>373</v>
       </c>
-      <c r="B558" s="133"/>
-      <c r="C558" s="10"/>
-      <c r="D558" s="14"/>
-      <c r="E558" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F558" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G558" s="48"/>
-      <c r="H558" s="48"/>
-    </row>
-    <row r="559" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A559" s="328" t="s">
+      <c r="B630" s="133"/>
+      <c r="C630" s="10"/>
+      <c r="D630" s="14"/>
+      <c r="E630" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F630" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G630" s="48"/>
+      <c r="H630" s="48"/>
+    </row>
+    <row r="631" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A631" s="328" t="s">
         <v>363</v>
       </c>
-      <c r="B559" s="133"/>
-      <c r="C559" s="10"/>
-      <c r="D559" s="14"/>
-      <c r="E559" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F559" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G559" s="48"/>
-      <c r="H559" s="48"/>
-    </row>
-    <row r="560" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A560" s="328" t="s">
+      <c r="B631" s="133"/>
+      <c r="C631" s="10"/>
+      <c r="D631" s="14"/>
+      <c r="E631" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F631" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G631" s="48"/>
+      <c r="H631" s="48"/>
+    </row>
+    <row r="632" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A632" s="328" t="s">
         <v>364</v>
       </c>
-      <c r="B560" s="133"/>
-      <c r="C560" s="10"/>
-      <c r="D560" s="14"/>
-      <c r="E560" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F560" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G560" s="48"/>
-      <c r="H560" s="48"/>
-    </row>
-    <row r="561" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A561" s="328" t="s">
+      <c r="B632" s="133"/>
+      <c r="C632" s="10"/>
+      <c r="D632" s="14"/>
+      <c r="E632" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F632" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G632" s="48"/>
+      <c r="H632" s="48"/>
+    </row>
+    <row r="633" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A633" s="328" t="s">
         <v>375</v>
       </c>
-      <c r="B561" s="133"/>
-      <c r="C561" s="10"/>
-      <c r="D561" s="14"/>
-      <c r="E561" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F561" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G561" s="48"/>
-      <c r="H561" s="48"/>
-    </row>
-    <row r="562" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A562" s="328" t="s">
+      <c r="B633" s="133"/>
+      <c r="C633" s="10"/>
+      <c r="D633" s="14"/>
+      <c r="E633" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F633" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G633" s="48"/>
+      <c r="H633" s="48"/>
+    </row>
+    <row r="634" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A634" s="328" t="s">
         <v>369</v>
       </c>
-      <c r="B562" s="133"/>
-      <c r="C562" s="10"/>
-      <c r="D562" s="14"/>
-      <c r="E562" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F562" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G562" s="48"/>
-      <c r="H562" s="48"/>
-    </row>
-    <row r="563" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A563" s="328" t="s">
+      <c r="B634" s="133"/>
+      <c r="C634" s="10"/>
+      <c r="D634" s="14"/>
+      <c r="E634" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F634" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G634" s="48"/>
+      <c r="H634" s="48"/>
+    </row>
+    <row r="635" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A635" s="328" t="s">
         <v>374</v>
       </c>
-      <c r="B563" s="133"/>
-      <c r="C563" s="10"/>
-      <c r="D563" s="14"/>
-      <c r="E563" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F563" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G563" s="48"/>
-      <c r="H563" s="48"/>
-    </row>
-    <row r="564" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A564" s="328" t="s">
+      <c r="B635" s="133"/>
+      <c r="C635" s="10"/>
+      <c r="D635" s="14"/>
+      <c r="E635" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F635" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G635" s="48"/>
+      <c r="H635" s="48"/>
+    </row>
+    <row r="636" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A636" s="328" t="s">
         <v>365</v>
       </c>
-      <c r="B564" s="133"/>
-      <c r="C564" s="10"/>
-      <c r="D564" s="14"/>
-      <c r="E564" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F564" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G564" s="48"/>
-      <c r="H564" s="48"/>
-    </row>
-    <row r="565" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A565" s="328" t="s">
+      <c r="B636" s="133"/>
+      <c r="C636" s="10"/>
+      <c r="D636" s="14"/>
+      <c r="E636" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F636" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G636" s="48"/>
+      <c r="H636" s="48"/>
+    </row>
+    <row r="637" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A637" s="328" t="s">
         <v>368</v>
       </c>
-      <c r="B565" s="133"/>
-      <c r="C565" s="10"/>
-      <c r="D565" s="14"/>
-      <c r="E565" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F565" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G565" s="48"/>
-      <c r="H565" s="48"/>
-    </row>
-    <row r="566" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A566" s="328" t="s">
+      <c r="B637" s="133"/>
+      <c r="C637" s="10"/>
+      <c r="D637" s="14"/>
+      <c r="E637" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F637" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G637" s="48"/>
+      <c r="H637" s="48"/>
+    </row>
+    <row r="638" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A638" s="328" t="s">
         <v>367</v>
       </c>
-      <c r="B566" s="133"/>
-      <c r="C566" s="10"/>
-      <c r="D566" s="14"/>
-      <c r="E566" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F566" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G566" s="48"/>
-      <c r="H566" s="48"/>
-    </row>
-    <row r="567" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
-      <c r="A567" s="328" t="s">
+      <c r="B638" s="133"/>
+      <c r="C638" s="10"/>
+      <c r="D638" s="14"/>
+      <c r="E638" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F638" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G638" s="48"/>
+      <c r="H638" s="48"/>
+    </row>
+    <row r="639" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="2">
+      <c r="A639" s="328" t="s">
         <v>366</v>
       </c>
-      <c r="B567" s="133"/>
-      <c r="C567" s="10"/>
-      <c r="D567" s="14"/>
-      <c r="E567" s="199" t="s">
-        <v>101</v>
-      </c>
-      <c r="F567" s="194" t="s">
-        <v>93</v>
-      </c>
-      <c r="G567" s="48"/>
-      <c r="H567" s="48"/>
-    </row>
-    <row r="568" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
-      <c r="A568" s="324" t="s">
+      <c r="B639" s="133"/>
+      <c r="C639" s="10"/>
+      <c r="D639" s="14"/>
+      <c r="E639" s="199" t="s">
+        <v>101</v>
+      </c>
+      <c r="F639" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="G639" s="48"/>
+      <c r="H639" s="48"/>
+    </row>
+    <row r="640" spans="1:8" s="22" customFormat="1" hidden="1" outlineLevel="1" collapsed="1">
+      <c r="A640" s="324" t="s">
         <v>352</v>
       </c>
-      <c r="B568" s="26"/>
-      <c r="C568" s="10"/>
-      <c r="D568" s="14"/>
-      <c r="E568" s="228"/>
-      <c r="F568" s="21"/>
-      <c r="G568" s="48"/>
-      <c r="H568" s="48"/>
-    </row>
-    <row r="569" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A569" s="294" t="s">
+      <c r="B640" s="26"/>
+      <c r="C640" s="10"/>
+      <c r="D640" s="14"/>
+      <c r="E640" s="228"/>
+      <c r="F640" s="21"/>
+      <c r="G640" s="48"/>
+      <c r="H640" s="48"/>
+    </row>
+    <row r="641" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A641" s="294" t="s">
         <v>353</v>
       </c>
-      <c r="B569" s="169"/>
-      <c r="C569" s="169"/>
-      <c r="D569" s="169"/>
-      <c r="E569" s="175" t="s">
+      <c r="B641" s="169"/>
+      <c r="C641" s="169"/>
+      <c r="D641" s="169"/>
+      <c r="E641" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F569" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="570" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A570" s="294" t="s">
+      <c r="F641" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A642" s="294" t="s">
         <v>360</v>
       </c>
-      <c r="B570" s="169"/>
-      <c r="C570" s="169"/>
-      <c r="D570" s="169"/>
-      <c r="E570" s="175" t="s">
+      <c r="B642" s="169"/>
+      <c r="C642" s="169"/>
+      <c r="D642" s="169"/>
+      <c r="E642" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F570" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="571" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A571" s="294" t="s">
+      <c r="F642" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A643" s="294" t="s">
         <v>361</v>
       </c>
-      <c r="B571" s="169"/>
-      <c r="C571" s="169"/>
-      <c r="D571" s="169"/>
-      <c r="E571" s="175" t="s">
+      <c r="B643" s="169"/>
+      <c r="C643" s="169"/>
+      <c r="D643" s="169"/>
+      <c r="E643" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F571" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="572" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A572" s="294" t="s">
+      <c r="F643" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A644" s="294" t="s">
         <v>354</v>
       </c>
-      <c r="B572" s="169"/>
-      <c r="C572" s="169"/>
-      <c r="D572" s="169"/>
-      <c r="E572" s="175" t="s">
+      <c r="B644" s="169"/>
+      <c r="C644" s="169"/>
+      <c r="D644" s="169"/>
+      <c r="E644" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F572" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="573" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A573" s="294" t="s">
+      <c r="F644" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A645" s="294" t="s">
         <v>355</v>
       </c>
-      <c r="B573" s="169"/>
-      <c r="C573" s="169"/>
-      <c r="D573" s="169"/>
-      <c r="E573" s="175" t="s">
+      <c r="B645" s="169"/>
+      <c r="C645" s="169"/>
+      <c r="D645" s="169"/>
+      <c r="E645" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F573" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="574" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A574" s="294" t="s">
+      <c r="F645" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A646" s="294" t="s">
         <v>356</v>
       </c>
-      <c r="B574" s="169"/>
-      <c r="C574" s="169"/>
-      <c r="D574" s="169"/>
-      <c r="E574" s="175" t="s">
+      <c r="B646" s="169"/>
+      <c r="C646" s="169"/>
+      <c r="D646" s="169"/>
+      <c r="E646" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F574" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="575" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A575" s="294" t="s">
+      <c r="F646" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A647" s="294" t="s">
         <v>359</v>
       </c>
-      <c r="B575" s="169"/>
-      <c r="C575" s="169"/>
-      <c r="D575" s="169"/>
-      <c r="E575" s="175" t="s">
+      <c r="B647" s="169"/>
+      <c r="C647" s="169"/>
+      <c r="D647" s="169"/>
+      <c r="E647" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F575" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="576" spans="1:8" hidden="1" outlineLevel="2">
-      <c r="A576" s="294" t="s">
+      <c r="F647" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A648" s="294" t="s">
         <v>357</v>
       </c>
-      <c r="B576" s="169"/>
-      <c r="C576" s="169"/>
-      <c r="D576" s="169"/>
-      <c r="E576" s="175" t="s">
+      <c r="B648" s="169"/>
+      <c r="C648" s="169"/>
+      <c r="D648" s="169"/>
+      <c r="E648" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F576" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="577" spans="1:6" hidden="1" outlineLevel="2">
-      <c r="A577" s="294" t="s">
+      <c r="F648" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" hidden="1" outlineLevel="2">
+      <c r="A649" s="294" t="s">
         <v>358</v>
       </c>
-      <c r="B577" s="169"/>
-      <c r="C577" s="169"/>
-      <c r="D577" s="169"/>
-      <c r="E577" s="175" t="s">
+      <c r="B649" s="169"/>
+      <c r="C649" s="169"/>
+      <c r="D649" s="169"/>
+      <c r="E649" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="F577" s="194" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="578" spans="1:6">
-      <c r="E578" s="326"/>
-      <c r="F578" s="327"/>
+      <c r="F649" s="194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6">
+      <c r="E650" s="326"/>
+      <c r="F650" s="327"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -30059,7 +30782,7 @@
     <mergeCell ref="D76:D80"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="E70:E71"/>
-    <mergeCell ref="D488:D498"/>
+    <mergeCell ref="D560:D570"/>
     <mergeCell ref="D379:D380"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="A139:A140"/>
@@ -30072,9 +30795,9 @@
     <mergeCell ref="A476:A477"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C501" r:id="rId1"/>
-    <hyperlink ref="C498" r:id="rId2"/>
-    <hyperlink ref="C516" r:id="rId3"/>
+    <hyperlink ref="C573" r:id="rId1"/>
+    <hyperlink ref="C570" r:id="rId2"/>
+    <hyperlink ref="C588" r:id="rId3"/>
     <hyperlink ref="C373" r:id="rId4"/>
     <hyperlink ref="C414" r:id="rId5"/>
     <hyperlink ref="C456" r:id="rId6"/>
@@ -30083,7 +30806,7 @@
     <hyperlink ref="C332" r:id="rId9"/>
     <hyperlink ref="C349" r:id="rId10"/>
     <hyperlink ref="C250" r:id="rId11"/>
-    <hyperlink ref="C552" r:id="rId12"/>
+    <hyperlink ref="C624" r:id="rId12"/>
     <hyperlink ref="C308" r:id="rId13"/>
     <hyperlink ref="C19" r:id="rId14"/>
     <hyperlink ref="C46" r:id="rId15"/>
